--- a/yield_prediction/results/graph_descriptors/WLrbf_4/out_of_sample/additive/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_4/out_of_sample/additive/ranking_test2/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.444</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.501</v>
+        <v>20.705</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.147</v>
+        <v>0.429</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.945</v>
+        <v>21.222</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.802</v>
+        <v>0.516</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.022</v>
+        <v>18.815</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>29.00118373218912</v>
+        <v>-19.36895297632004</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>29.28814118490413</v>
+        <v>15.68469632899274</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>29.53108229477278</v>
+        <v>23.7705515450894</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>28.71163222533596</v>
+        <v>-7.022234075050228</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>29.2785835080915</v>
+        <v>7.681452372552535</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>29.43108466218305</v>
+        <v>13.37791950421859</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>28.94548441325271</v>
+        <v>6.978363675646783</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>29.54178292062192</v>
+        <v>14.16178240912966</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29.76696232355697</v>
+        <v>18.47434483447892</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>29.21874994386752</v>
+        <v>21.59562280272456</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>29.35109054457944</v>
+        <v>29.95079609782629</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>29.36686499902315</v>
+        <v>34.01233606198871</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>29.19175985715881</v>
+        <v>2.342200257880954</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>29.37073874133358</v>
+        <v>22.35198698848574</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>29.54485217231022</v>
+        <v>29.93517166583984</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>28.81837943700604</v>
+        <v>-16.3290298631809</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>29.31723059141817</v>
+        <v>18.72804287689535</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>29.48104035452414</v>
+        <v>26.81653592956427</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>28.45274414670023</v>
+        <v>-3.985638792710525</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>28.81121726854768</v>
+        <v>10.7209182600132</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>28.92361620088134</v>
+        <v>16.41954642369131</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>28.57716444587742</v>
+        <v>10.01860880958957</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>29.12836660623085</v>
+        <v>17.20434188594873</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>29.13549527303525</v>
+        <v>-11.47276156839923</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>29.59992676641465</v>
+        <v>23.58164544778361</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>29.68716390636463</v>
+        <v>31.66744294556968</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>28.83388241587547</v>
+        <v>0.8752671527221807</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>29.80740801138847</v>
+        <v>15.57951727765072</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>29.87806829207784</v>
+        <v>21.27590803615004</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>29.13956461263171</v>
+        <v>14.8763584977932</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>30.12926227783937</v>
+        <v>22.06022387662886</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>30.19520926346892</v>
+        <v>26.3727133856035</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>30.42950036155117</v>
+        <v>29.49448000343653</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>30.64945517577577</v>
+        <v>37.84976228678982</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>30.689859545096</v>
+        <v>41.91129433516817</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>29.96671580037</v>
+        <v>10.24040449944214</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>30.46995547029444</v>
+        <v>30.25088390745241</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>30.53311146202631</v>
+        <v>37.83396876742568</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>28.987491163081</v>
+        <v>-8.431534466075341</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>29.61523615635698</v>
+        <v>26.62629604734007</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>29.64128233540223</v>
+        <v>34.71473142085727</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>28.35715214447747</v>
+        <v>3.913166549874113</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>29.33622214856035</v>
+        <v>18.62028733267851</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>29.41701366686695</v>
+        <v>24.31883915370559</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>29.87692663845638</v>
+        <v>25.10408761270212</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>28.9979642970358</v>
+        <v>-7.42552872390997</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>29.42996748272453</v>
+        <v>27.6289984922518</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>29.61767126500957</v>
+        <v>35.71481352380686</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>28.78608981175256</v>
+        <v>4.923060892596077</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>29.71265483948761</v>
+        <v>19.627471316735</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>29.83304054143593</v>
+        <v>25.32388071427368</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>29.11983209022065</v>
+        <v>18.9242350232119</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>30.05070197224919</v>
+        <v>26.10825492828547</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>30.20144421061762</v>
+        <v>30.42076207743553</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>30.42242087712353</v>
+        <v>33.54253010935945</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>30.61208778466318</v>
+        <v>41.89781857603912</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>30.67637687951659</v>
+        <v>45.95936816030865</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>29.67036560267818</v>
+        <v>14.28829034407732</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>30.19885781334516</v>
+        <v>34.29895838861494</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>30.2856156288428</v>
+        <v>41.88205244029057</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>28.8341482196419</v>
+        <v>-4.383766185177315</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>29.50509198257448</v>
+        <v>30.67418453580267</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>29.68730552515604</v>
+        <v>38.76263744676321</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>28.43082808284818</v>
+        <v>7.961495780955765</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>29.25543900799726</v>
+        <v>22.66877687249376</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>29.56759583763266</v>
+        <v>28.36734733473923</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>28.87795271090565</v>
+        <v>21.96631987927213</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>29.8962244108921</v>
+        <v>29.15265418017776</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>28.76272977332516</v>
+        <v>-14.86539472161616</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>29.12215825486576</v>
+        <v>20.18860867722088</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>29.34796575594008</v>
+        <v>28.27459515437311</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>28.65961710671045</v>
+        <v>-2.517759452728178</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>29.47584441842112</v>
+        <v>12.1862590190546</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>29.6945473706315</v>
+        <v>17.88284599711829</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>28.8975429822442</v>
+        <v>11.48294251984071</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>29.70346525359994</v>
+        <v>18.6666499903361</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>29.98470684447969</v>
+        <v>22.97931641038866</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>29.73092356379139</v>
+        <v>26.10055040385037</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>29.89553588249513</v>
+        <v>34.45577611639253</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>30.00882069693703</v>
+        <v>38.51741231533952</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>29.23974225682989</v>
+        <v>6.846779121415629</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>29.67043936141076</v>
+        <v>26.85697840531196</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>29.85527300933231</v>
+        <v>34.44028635269665</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>28.78198479314879</v>
+        <v>-11.82472904257651</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>29.3578704669077</v>
+        <v>23.2326978147476</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>29.66090530524699</v>
+        <v>31.32132215385064</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>28.43810617903192</v>
+        <v>0.5195784557943668</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>29.22193693520331</v>
+        <v>15.22646755984265</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>29.58819548996998</v>
+        <v>20.92521558813228</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>28.64910362359075</v>
+        <v>14.52393031045863</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>29.56691106772468</v>
+        <v>21.70995214937505</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>29.27135297363691</v>
+        <v>21.51872484892765</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>29.08631859905836</v>
+        <v>24.64158757995045</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>29.43642345075761</v>
+        <v>32.9988656493453</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>29.49807232052073</v>
+        <v>37.06169173065592</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>28.7966096517636</v>
+        <v>5.387402012884927</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>29.07689964786578</v>
+        <v>25.40167773314936</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>29.24333622212414</v>
+        <v>32.9867330158525</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>29.0282558092575</v>
+        <v>-6.752474894085658</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>29.43322214322401</v>
+        <v>28.30596748013095</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>29.73543198102674</v>
+        <v>36.39519337594236</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>28.56697505859532</v>
+        <v>5.594432408705011</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>28.92334206050916</v>
+        <v>20.30249937794763</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>29.15148572978216</v>
+        <v>26.00187009844165</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>28.78817418824445</v>
+        <v>19.60020651648363</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>29.3276067868896</v>
+        <v>26.7873292931095</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>29.65893505160647</v>
+        <v>31.10237195107396</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>29.44743422037502</v>
+        <v>34.2277000965958</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>29.83737827484238</v>
+        <v>42.58571354072188</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>29.93645069226916</v>
+        <v>46.64883897905775</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>29.00044710341359</v>
+        <v>14.97115288905587</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>29.36522798515684</v>
+        <v>34.9871622908069</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>29.58362464614631</v>
+        <v>42.57310700410067</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>29.9358710072621</v>
+        <v>29.41839768477831</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>29.9124430726062</v>
+        <v>32.54174901759557</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>30.17656829575951</v>
+        <v>40.89913607582053</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>30.16933093272437</v>
+        <v>44.96195425086847</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>29.34246688795947</v>
+        <v>13.28691046233751</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>30.06856993224879</v>
+        <v>33.30187893324972</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>30.11371988933662</v>
+        <v>40.88683442664938</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>29.14497621209469</v>
+        <v>1.145956775367999</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>29.83281549318072</v>
+        <v>36.20515693293776</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>30.06994464470787</v>
+        <v>44.29432513523573</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>28.55366922526363</v>
+        <v>13.49417414793179</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>29.93153550620534</v>
+        <v>28.20280485479434</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>30.13175511458373</v>
+        <v>33.90209922233708</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>29.12504524948373</v>
+        <v>27.50044197169557</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>30.57434757774472</v>
+        <v>34.68801144305728</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>30.82622474780019</v>
+        <v>39.00298120196174</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>30.87758812754148</v>
+        <v>42.12879796828718</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>31.16104893886535</v>
+        <v>50.48692040590736</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>31.2687532416731</v>
+        <v>54.55003793204065</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>30.07642420323414</v>
+        <v>22.87159775271453</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>30.99958737766602</v>
+        <v>42.88829990894629</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>31.09595541032412</v>
+        <v>50.47414482659263</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>30.23415178350418</v>
+        <v>33.46698189351417</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>29.9012104701637</v>
+        <v>36.59033458100833</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>30.14572050950727</v>
+        <v>44.94772781284012</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>30.28563297363159</v>
+        <v>49.01056352479412</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>29.31228962262259</v>
+        <v>17.3353317712694</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>30.00719594753941</v>
+        <v>37.35048888516399</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>30.19735243611574</v>
+        <v>44.93545357444298</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>28.97388307634471</v>
+        <v>5.194132166716308</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>29.80404716616772</v>
+        <v>40.25345253316032</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>30.05381478437173</v>
+        <v>48.34263826269494</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>28.54490441617769</v>
+        <v>17.5429105157064</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>29.8935159861205</v>
+        <v>32.25170153047423</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>30.16072435953058</v>
+        <v>37.95101453220757</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>29.1962001309686</v>
+        <v>31.54926114887854</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>30.68617892832429</v>
+        <v>38.73698515495408</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>31.00821322764656</v>
+        <v>43.05197254957834</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>30.89837122542107</v>
+        <v>46.17779066677627</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>31.1664764594633</v>
+        <v>54.53591927587075</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>31.3930156324503</v>
+        <v>58.59905433676357</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>30.02312303356943</v>
+        <v>26.92042618938495</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>30.95929251942948</v>
+        <v>46.93731698544371</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>31.16628289951502</v>
+        <v>54.52317109229346</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>29.98414481080801</v>
+        <v>26.02443912133236</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>29.28654631697993</v>
+        <v>29.14725777733968</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>29.5276919372404</v>
+        <v>37.50458825770425</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>29.70161829436454</v>
+        <v>41.56751058978812</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>29.01269187537427</v>
+        <v>9.892723494877195</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>29.68195028652327</v>
+        <v>29.90741179883576</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>29.89303914171177</v>
+        <v>37.49259037227971</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>28.92264340848778</v>
+        <v>-2.247404456919135</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>29.76374568894809</v>
+        <v>32.81139204650361</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>30.20505379978438</v>
+        <v>40.90074921751914</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>28.50893989410459</v>
+        <v>10.10041933564371</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>29.74924112317377</v>
+        <v>24.80881836525241</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>30.20758172839566</v>
+        <v>30.50830894632082</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>28.84105142505442</v>
+        <v>24.10629772368946</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>30.22743875777094</v>
+        <v>31.29370927027929</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>30.79321974373333</v>
+        <v>35.60885593538949</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>30.31808254973284</v>
+        <v>38.73414001638508</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>30.65013495617903</v>
+        <v>47.09220587227201</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>30.93824389900988</v>
+        <v>51.15542755800919</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>29.60767257313399</v>
+        <v>19.47724405892989</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>30.42139691759322</v>
+        <v>39.49366605097162</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>30.78659354389401</v>
+        <v>47.07973405196838</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>16.88251051918322</v>
+        <v>-9.828805699292339</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>18.53431421049343</v>
+        <v>25.22342915890425</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>21.45901288100802</v>
+        <v>33.30817916833399</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>12.42187751656272</v>
+        <v>2.518526804984553</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>17.36483403685124</v>
+        <v>17.22247685867597</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>18.96079213645562</v>
+        <v>22.91807774034606</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>15.09936870871638</v>
+        <v>16.51887008175486</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>20.12216382304688</v>
+        <v>23.70302036959134</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>22.5969167705542</v>
+        <v>28.01488088076149</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>17.80713084255309</v>
+        <v>31.13599650672455</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>19.55658992133699</v>
+        <v>39.49097801145677</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>19.07794079255601</v>
+        <v>43.55195382876951</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>18.85369061712536</v>
+        <v>11.88296832587803</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>19.77074297738937</v>
+        <v>31.89269426604238</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>21.73558692811455</v>
+        <v>39.47487372349024</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>16.14472515147377</v>
+        <v>-6.793346211233434</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>22.21188136369879</v>
+        <v>28.26231176776019</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>25.57017390108413</v>
+        <v>36.34969924228465</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>12.26782102391342</v>
+        <v>5.550658349520681</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>16.15949241201831</v>
+        <v>20.25747874138067</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>17.86276859183165</v>
+        <v>25.95524031127564</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>13.8490442781755</v>
+        <v>19.55465118990679</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>20.25020267836623</v>
+        <v>26.74111560297609</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>15.20977213928878</v>
+        <v>-1.933371142655297</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>16.53196439943825</v>
+        <v>33.11962137494827</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>18.06426991098776</v>
+        <v>41.20431365884922</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>13.62909432405731</v>
+        <v>10.41527106606264</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>20.681971031017</v>
+        <v>25.11978476203836</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>21.90080875575151</v>
+        <v>30.8153092668794</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>14.06165142582242</v>
+        <v>24.41610789949862</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>20.74319441414504</v>
+        <v>31.60070480640143</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>21.6867605725261</v>
+        <v>35.91249239862037</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>25.26271661273037</v>
+        <v>39.03409664192946</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>27.32810639121765</v>
+        <v>47.38918712838807</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>28.07587244919813</v>
+        <v>51.45015502668257</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>19.80997007386765</v>
+        <v>19.78041554864392</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>23.53043710315264</v>
+        <v>39.79083412209962</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>24.45853022340149</v>
+        <v>47.37291376135652</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>16.74503522087883</v>
+        <v>1.103392198959277</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>24.69491388769066</v>
+        <v>36.15980790020551</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>25.51599820850629</v>
+        <v>44.24713768831332</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>10.01826814576886</v>
+        <v>13.44870658952919</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>23.79236418055575</v>
+        <v>28.15609067667508</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>25.79940003690519</v>
+        <v>33.85377590022102</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>12.62115421391225</v>
+        <v>27.453193087452</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>28.58861432979209</v>
+        <v>34.64010416330193</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>15.33539537579749</v>
+        <v>2.113416312009285</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>16.17442476396564</v>
+        <v>37.16652901605544</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>18.77045328978605</v>
+        <v>45.25123882951919</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>10.34075365803825</v>
+        <v>14.46261936281024</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>16.96125762120337</v>
+        <v>29.16729334099926</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>18.64571422713953</v>
+        <v>34.86283648129716</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>11.8051608221379</v>
+        <v>28.46353896885142</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>17.7345925494158</v>
+        <v>35.64829038567751</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>19.64875859598811</v>
+        <v>39.96009561485487</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>24.12056948173485</v>
+        <v>43.08170127943372</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>25.86060989713463</v>
+        <v>51.43679794707082</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>27.42251474244576</v>
+        <v>55.49778337837375</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>15.91268494955266</v>
+        <v>23.82785594120303</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>20.71150945131253</v>
+        <v>43.83846313268901</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>21.76945254565715</v>
+        <v>51.42055195993185</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>13.97515827946277</v>
+        <v>5.150715044501389</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>21.81376526615421</v>
+        <v>40.20725093979348</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>25.62176339324324</v>
+        <v>48.29459826142357</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>10.71243344866991</v>
+        <v>17.49659033256233</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>20.22414977553421</v>
+        <v>32.2041347113805</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>26.2790117253097</v>
+        <v>37.90183857222637</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>15.77180440551095</v>
+        <v>31.5011596178279</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>27.86136173892953</v>
+        <v>38.68822521283544</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>11.72514964046315</v>
+        <v>-5.325789363096483</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>12.11509015036074</v>
+        <v>29.72679955786889</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>14.16914868241313</v>
+        <v>37.81168081230822</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>8.00812143925744</v>
+        <v>7.022459436037416</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>12.97004639645408</v>
+        <v>21.72674148607194</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>15.27772908300627</v>
+        <v>27.42246219978488</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>11.27333060511401</v>
+        <v>21.02290691665183</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>15.66709355089657</v>
+        <v>28.20734591776448</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>18.63065615921932</v>
+        <v>32.51931041119399</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>14.26081936632461</v>
+        <v>35.64038208484879</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>15.28194666355166</v>
+        <v>43.99541600228957</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>17.2102296941487</v>
+        <v>48.05648804236073</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>9.47522625204553</v>
+        <v>16.38700519187187</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>12.16339010387701</v>
+        <v>36.39714365308685</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>14.69722452417656</v>
+        <v>43.97944636433845</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>15.71603445393162</v>
+        <v>-2.2895873895962</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>21.50426338218557</v>
+        <v>32.76642467645154</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>26.67109789218121</v>
+        <v>40.85394342128716</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>9.958482457684038</v>
+        <v>10.05533352661421</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>19.02593955887252</v>
+        <v>24.76248594214479</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>24.33166910326189</v>
+        <v>30.46036736238016</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>13.52207319571568</v>
+        <v>24.05943060128237</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>24.22706352773754</v>
+        <v>31.24618375292112</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>22.81308792810948</v>
+        <v>31.05479635097532</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>18.78304185732671</v>
+        <v>34.17749678810576</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>23.70010506348947</v>
+        <v>42.53458289651797</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>24.76846170625593</v>
+        <v>46.59684465326148</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>15.58510521786814</v>
+        <v>14.92370583419386</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>18.66423234430771</v>
+        <v>34.93792037093163</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>21.06745671512626</v>
+        <v>42.52197009248271</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>19.47466404700785</v>
+        <v>2.782095650750016</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>24.00745544443021</v>
+        <v>37.83912306790165</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>27.49768032278113</v>
+        <v>45.92724335580845</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>11.24395131975546</v>
+        <v>15.12961619976516</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>15.32184275786172</v>
+        <v>29.83794630630342</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>17.30686656426985</v>
+        <v>35.53645041132636</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>14.93738780023228</v>
+        <v>29.13513536755323</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>21.43795511922793</v>
+        <v>36.32298929689289</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>24.7666322385014</v>
+        <v>40.63732972448684</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>22.29157800298452</v>
+        <v>43.76249542362614</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>27.27016231703777</v>
+        <v>52.12031682246464</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>29.37806466562492</v>
+        <v>56.18287792184918</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>16.6846125490311</v>
+        <v>24.50634306493037</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>21.50775979522772</v>
+        <v>44.52229107943747</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>23.93225656099696</v>
+        <v>52.10723017554442</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>30.05523832637931</v>
+        <v>38.95371201768312</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>27.1211069919208</v>
+        <v>42.07690102490022</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>31.57003375429298</v>
+        <v>50.43409611579755</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>31.85110512495333</v>
+        <v>54.49634996309015</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>19.09646168991683</v>
+        <v>22.82245712956165</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>30.05838052520178</v>
+        <v>42.83736437277087</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>30.91059747402527</v>
+        <v>50.4213143042221</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>20.7368205378764</v>
+        <v>10.67977022043345</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>14.480664533276</v>
+        <v>23.02860072398715</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>32.210047196321</v>
+        <v>37.73749453292367</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>36.77419227201756</v>
+        <v>43.43592228147059</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>20.76935562717079</v>
+        <v>37.03461357052054</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>39.08861177185111</v>
+        <v>44.22291416813328</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>44.22569808349265</v>
+        <v>48.5371816939766</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>44.23217418204416</v>
+        <v>51.66283598171974</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>48.61472081256263</v>
+        <v>60.02076636784437</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>50.15878056732789</v>
+        <v>64.08331955174339</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>33.1097118035723</v>
+        <v>32.40603066237957</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>45.65273528541444</v>
+        <v>52.42267138693347</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>47.53213137124807</v>
+        <v>60.00751068663242</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>34.56779462112939</v>
+        <v>43.0018507052535</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>26.23329682548588</v>
+        <v>46.12504107477803</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>29.49688582136578</v>
+        <v>54.48224233716126</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>32.15987459596931</v>
+        <v>58.54451371839382</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>17.64752459008796</v>
+        <v>26.87043294050471</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>27.10913154350792</v>
+        <v>46.88552880864909</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>30.68335146396467</v>
+        <v>54.46948793221434</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>15.75404271151746</v>
+        <v>14.72750014323383</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>26.52186749957869</v>
+        <v>49.78540548843835</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>32.32998387502725</v>
+        <v>57.87348559866819</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>13.09358072858105</v>
+        <v>27.07689157009047</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>30.99214306859123</v>
+        <v>41.78594567021758</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>36.60499355035136</v>
+        <v>47.48439204894424</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>21.09625500438784</v>
+        <v>41.08298721302622</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>41.05460272765814</v>
+        <v>48.27144232915173</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>47.96516010986762</v>
+        <v>52.58572748746854</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>44.382493654362</v>
+        <v>55.71138313342026</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>48.16993081599244</v>
+        <v>64.06931968891166</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>52.24968402886041</v>
+        <v>68.13189040451761</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>31.79804077792758</v>
+        <v>36.45441356810357</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>45.08288376356094</v>
+        <v>56.47124291422477</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>48.87278042861595</v>
+        <v>64.05609139942277</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>30.53687795350133</v>
+        <v>35.55996849752619</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>18.14087073940757</v>
+        <v>38.68262488257351</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>20.66271826364204</v>
+        <v>47.03976339744275</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>22.68094198762984</v>
+        <v>51.10212139267724</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>13.79955224733332</v>
+        <v>19.42848523858759</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>22.42116482784661</v>
+        <v>39.44311232699152</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>25.4173343875702</v>
+        <v>47.02728532315717</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>17.94467945591689</v>
+        <v>7.286624026243366</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>28.78023989560205</v>
+        <v>42.34400554248651</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>34.68861210155408</v>
+        <v>50.432257089713</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>12.433386498744</v>
+        <v>19.63506099269073</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>31.38102595430524</v>
+        <v>34.3437231317992</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>35.45285527069829</v>
+        <v>40.04234708307575</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>18.50149038736401</v>
+        <v>33.64068442288038</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>38.77410815665679</v>
+        <v>40.82882709823576</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>45.07745974231294</v>
+        <v>45.14327152065419</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>39.92113859027466</v>
+        <v>48.26839317768286</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>45.03066437091341</v>
+        <v>56.62626698399475</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>48.73694514829687</v>
+        <v>60.68892431845295</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>29.06041591987544</v>
+        <v>29.01189209545367</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>42.00530570614472</v>
+        <v>49.02825266778955</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>45.933840372967</v>
+        <v>56.61331503575109</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>22.22335443519588</v>
+        <v>-10.21563768568746</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>24.25194026087922</v>
+        <v>24.83808910046746</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>26.99910407172614</v>
+        <v>32.92303630401266</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>18.78044159100598</v>
+        <v>2.131734249753258</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>23.68401934681641</v>
+        <v>16.83637033081202</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>25.24880539838258</v>
+        <v>22.5320982768963</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>21.0254960081705</v>
+        <v>16.13274241831396</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>26.07867635290137</v>
+        <v>23.31726430098336</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>28.46960249345087</v>
+        <v>27.62921565713298</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>23.87938334894166</v>
+        <v>30.75041886141224</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>25.40751003807976</v>
+        <v>39.10575547010733</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>25.28133630691117</v>
+        <v>43.16683969722072</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>24.09362870167614</v>
+        <v>11.49646349681921</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>25.44123529740659</v>
+        <v>31.5072016796426</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>27.20543471060169</v>
+        <v>39.08954453492895</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>21.08065041879247</v>
+        <v>-7.181965772001668</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>25.83757019886226</v>
+        <v>27.87518422039278</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>27.92313964937152</v>
+        <v>35.9627690296308</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>17.56583079195047</v>
+        <v>5.162078030159414</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>21.11706072428746</v>
+        <v>19.86958449703473</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>22.53282793952348</v>
+        <v>25.56747326187934</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>19.14352603605439</v>
+        <v>19.16673582995229</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>24.53772773894495</v>
+        <v>26.35357186619483</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>21.85003847226222</v>
+        <v>-2.319990294994859</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>24.89150029141386</v>
+        <v>32.73449418586272</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>25.77444375638249</v>
+        <v>40.81938365673926</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>19.70667121077054</v>
+        <v>10.02869138443878</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>27.61524903524688</v>
+        <v>24.73389113561841</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>28.32063689990282</v>
+        <v>30.42954269696389</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>21.6267224596044</v>
+        <v>24.03019313077294</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>29.54253014363448</v>
+        <v>31.21516165473138</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>30.07962757612199</v>
+        <v>35.52704008501058</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>32.87354384419245</v>
+        <v>38.64873193086242</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>34.90101542590254</v>
+        <v>47.00417752691811</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>35.25769889555562</v>
+        <v>51.06525383275112</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>28.3724968283641</v>
+        <v>19.39412362682281</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>32.68319055589627</v>
+        <v>39.40555447612342</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>33.31651866564604</v>
+        <v>46.98779750518116</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>22.44557690627168</v>
+        <v>0.7149855105315552</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>28.63264076307645</v>
+        <v>35.77289326054773</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>29.08790752775243</v>
+        <v>43.86042037623707</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>16.34655383670071</v>
+        <v>13.06033918280507</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>27.01049248330628</v>
+        <v>27.7684093724419</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>28.15305027439991</v>
+        <v>33.46622178319608</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>19.45588809390188</v>
+        <v>27.06549066095038</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>31.61757619323343</v>
+        <v>34.25277338202778</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>20.64163394129269</v>
+        <v>1.726927463031465</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>23.50491966979822</v>
+        <v>36.78153213494982</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>25.36102457768992</v>
+        <v>44.86643913669791</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>18.14833059213564</v>
+        <v>14.07617000882754</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>25.66965622217793</v>
+        <v>28.78153004852066</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>26.86150303607876</v>
+        <v>34.47720024676317</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>20.47857496517642</v>
+        <v>28.07775452884874</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>27.90122698736283</v>
+        <v>35.2628775689032</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>29.31173887953891</v>
+        <v>39.57477363744277</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>32.64973390407653</v>
+        <v>42.69646690601899</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>34.32418200316359</v>
+        <v>51.05191868476759</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>35.22553529943642</v>
+        <v>55.11301252431831</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>25.44827619845781</v>
+        <v>23.44169435225222</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>30.08016172666705</v>
+        <v>43.45331382781529</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>31.05743758938138</v>
+        <v>51.03556604532917</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>20.14978850990493</v>
+        <v>4.762438676036417</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>26.7431491106027</v>
+        <v>39.82046662440001</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>29.06092615274498</v>
+        <v>47.90801127464925</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>17.20827732138247</v>
+        <v>17.10835326937075</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>25.51812654663214</v>
+        <v>31.81658375723594</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>29.32120043397421</v>
+        <v>37.51441480670137</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>21.66930470145756</v>
+        <v>31.11358753610119</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>31.89776485363534</v>
+        <v>38.30102478307918</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>18.2254734743569</v>
+        <v>-5.712513524498213</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>20.61115825887172</v>
+        <v>29.34156733786124</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>22.40873106247765</v>
+        <v>37.42664579322439</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>17.02659148118994</v>
+        <v>6.635774744744303</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>23.36534152003034</v>
+        <v>21.34074283435546</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>25.21537953777437</v>
+        <v>27.03659061927265</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>19.54303718756994</v>
+        <v>20.63688711685341</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>25.7270672410449</v>
+        <v>27.82169772291461</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>28.11840461189062</v>
+        <v>32.13375306778476</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>25.59973960846331</v>
+        <v>35.25491232275424</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>26.89350066781654</v>
+        <v>43.61030134828291</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>28.23660009971834</v>
+        <v>47.6714818017005</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>20.83688872009989</v>
+        <v>16.00060823538006</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>24.19959483492355</v>
+        <v>36.01175895607872</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>26.1823791449219</v>
+        <v>43.59422507041943</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>20.34974294701279</v>
+        <v>-2.678099116916719</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>25.54389715543469</v>
+        <v>32.37940497558912</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>29.0322689722752</v>
+        <v>40.46712106179375</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>16.83457953649435</v>
+        <v>9.66686107935589</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>24.57540659571373</v>
+        <v>24.37469958202342</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>28.33600343575814</v>
+        <v>30.07270820394154</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>19.4812270472299</v>
+        <v>23.67162311319378</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>28.48578951119237</v>
+        <v>30.85874789842745</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>26.34662918994528</v>
+        <v>30.66734357262401</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>24.07159044139117</v>
+        <v>33.79013174424522</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>27.68460960238876</v>
+        <v>42.14757301542198</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>28.38155176631222</v>
+        <v>46.20994325166753</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>21.21609210786256</v>
+        <v>14.53541364563016</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>23.93270875604915</v>
+        <v>34.5506405306965</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>25.76708885688878</v>
+        <v>42.1348537926205</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>22.94525330566477</v>
+        <v>2.393996916262431</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>26.56385600235661</v>
+        <v>37.45251640436884</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>29.55164574039853</v>
+        <v>45.54083405781983</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>16.97340750899138</v>
+        <v>14.74155686301827</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>20.17309861712142</v>
+        <v>29.45057311800797</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>22.41253893226212</v>
+        <v>35.14920444560374</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>19.75587826711135</v>
+        <v>28.74774105721684</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>24.76591660173457</v>
+        <v>35.93596668034245</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>28.01981370854563</v>
+        <v>40.25039809040157</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>26.21359265908799</v>
+        <v>43.37565160946149</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>29.99304474213793</v>
+        <v>51.73382820162617</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>31.45736083104254</v>
+        <v>55.7964977954038</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>21.82321947280291</v>
+        <v>24.11857202064623</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>25.3597469442964</v>
+        <v>44.13553246025304</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>27.63136987255568</v>
+        <v>51.72063511959293</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>32.46739437762563</v>
+        <v>38.56647218790982</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>31.39230484493421</v>
+        <v>41.68974895394586</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>34.41326308283522</v>
+        <v>50.04729921299263</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>34.41821370994814</v>
+        <v>54.10966153764223</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>25.2299037728444</v>
+        <v>22.43437788683587</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>33.36875698161852</v>
+        <v>42.45029751161797</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>33.85682082232865</v>
+        <v>50.03441097560056</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>24.25159628865184</v>
+        <v>10.29188438721047</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>30.60982912616222</v>
+        <v>45.35116164305912</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>33.29236988961581</v>
+        <v>53.43942158849307</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>18.96452315002784</v>
+        <v>22.6407543287409</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>32.89896161614792</v>
+        <v>37.35033431348034</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>35.49577625347871</v>
+        <v>43.04888927677774</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>24.42686953832453</v>
+        <v>36.64743222200962</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>38.91701362850721</v>
+        <v>43.83610453582508</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>41.91105269645968</v>
+        <v>48.15046303725494</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>42.63423727419298</v>
+        <v>51.27620516933694</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>45.74541053168143</v>
+        <v>59.63449075403599</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>46.64149689971361</v>
+        <v>63.69715243042395</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>34.24013400658892</v>
+        <v>32.01847259251024</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>43.81165360492567</v>
+        <v>52.03612577535767</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>44.91682204209509</v>
+        <v>59.62112863042494</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>36.07767255882447</v>
+        <v>42.61474122827592</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>31.54564254630051</v>
+        <v>45.73801935742886</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>33.97323789385853</v>
+        <v>54.09557578951767</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>35.62891575423009</v>
+        <v>58.15795564887895</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>24.79396388102637</v>
+        <v>26.48248404688916</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>32.11892684531021</v>
+        <v>46.49859230460998</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>34.40863151779606</v>
+        <v>54.08271496121136</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>21.09804759435286</v>
+        <v>14.33974464679937</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>29.36975812622818</v>
+        <v>49.39914210251214</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>33.06059696101457</v>
+        <v>57.48741957228645</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>18.397070673433</v>
+        <v>26.689175535395</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>32.00665291943207</v>
+        <v>41.39891581774219</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>35.76819087079181</v>
+        <v>47.09748941273215</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>24.7014055683822</v>
+        <v>40.69593622652899</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>39.7698403397094</v>
+        <v>47.88476306497676</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>44.34528530145835</v>
+        <v>52.19913920025709</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>42.93134865145299</v>
+        <v>55.3248826918089</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>45.62502427618956</v>
+        <v>63.68317444731218</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>48.40656895815366</v>
+        <v>67.74585365594436</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>33.58124792528805</v>
+        <v>36.06698586404689</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>43.34742598971914</v>
+        <v>56.08482767678372</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>45.99910280105107</v>
+        <v>63.66983971784435</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>32.91424592209142</v>
+        <v>35.17262360770979</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>25.19166505771385</v>
+        <v>38.29536772980082</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>27.4049360508206</v>
+        <v>46.6528614115528</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>29.0439306124534</v>
+        <v>50.71532789013332</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>22.05546217220631</v>
+        <v>19.04030093038801</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>28.92380517017054</v>
+        <v>39.05594038390216</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>31.0807035375132</v>
+        <v>46.64027692549376</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>21.56141266659296</v>
+        <v>6.898633156198279</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>29.82155816693299</v>
+        <v>41.95750675638708</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>34.0246325233004</v>
+        <v>50.04595567573204</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>17.96351452949481</v>
+        <v>19.24710955913013</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>31.44207100665717</v>
+        <v>33.95645785869913</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>35.08677867380504</v>
+        <v>39.65520903926227</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>22.23804217523434</v>
+        <v>33.25339801556589</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>36.91797811058412</v>
+        <v>40.44191239482705</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>41.8851949851291</v>
+        <v>44.75644780610065</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>38.43286028258081</v>
+        <v>47.88165728615325</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>42.13436221611099</v>
+        <v>56.23988628931345</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>44.8890522872636</v>
+        <v>60.30265212209832</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>30.62223646429754</v>
+        <v>28.6242289624717</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>39.71763613210128</v>
+        <v>48.64160197677261</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>42.93632078324202</v>
+        <v>56.22682791299217</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>22.3643654977801</v>
+        <v>-17.48214163258655</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>26.01393428083336</v>
+        <v>17.57152806854804</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>29.88135684130178</v>
+        <v>25.65655650563877</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>18.29335962523215</v>
+        <v>-5.135233352141832</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>25.54784671242962</v>
+        <v>9.569159042171627</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>27.84534093935276</v>
+        <v>15.26498050932076</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>21.3366639218274</v>
+        <v>8.86563307044019</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>28.98376181133622</v>
+        <v>16.04988042761493</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>32.47262899901489</v>
+        <v>20.36191717180071</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>25.13824642803716</v>
+        <v>23.48335806557798</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>27.19989923336806</v>
+        <v>31.83858846028584</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>27.25639544668014</v>
+        <v>35.89972387618177</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>24.82082556400545</v>
+        <v>4.229772468099263</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>27.20541521958871</v>
+        <v>24.24033994014513</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>29.60939032261493</v>
+        <v>31.82280064067395</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>19.47010911598202</v>
+        <v>-14.44792792611026</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>25.41871505333697</v>
+        <v>20.60916506853612</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>27.64614792197541</v>
+        <v>28.69683113226454</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>14.60854499697539</v>
+        <v>-2.104347851052644</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>19.11722080610643</v>
+        <v>12.60291501118507</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>20.65370878079183</v>
+        <v>18.30089730934406</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>16.35031912153175</v>
+        <v>11.90016825202195</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>23.13798824995072</v>
+        <v>19.08672983387549</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>23.56160870337789</v>
+        <v>-9.586476337996778</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>29.53798877404465</v>
+        <v>25.46795105984273</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>30.74402346837622</v>
+        <v>33.55292176492622</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>19.80552473305201</v>
+        <v>2.76174169069332</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>32.22813802621629</v>
+        <v>17.46669775437663</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>33.23804997196716</v>
+        <v>23.16244283946792</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>23.85633809295972</v>
+        <v>16.76310169623883</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>36.66014906319323</v>
+        <v>23.94779569322048</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>37.59355321692553</v>
+        <v>28.25975951415131</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>41.52251867513296</v>
+        <v>31.38168905745993</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>44.34919106354434</v>
+        <v>39.73702843897723</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>44.67205314476641</v>
+        <v>43.7981559352259</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>35.51327326480845</v>
+        <v>12.12745052036831</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>42.20952977587001</v>
+        <v>32.13871065973108</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>43.03441711148292</v>
+        <v>39.72107153628217</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>22.26236893509547</v>
+        <v>-6.550958705601666</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>29.38113793563042</v>
+        <v>28.5068920483855</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>29.76375541153453</v>
+        <v>36.59450041930284</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>12.2087503849771</v>
+        <v>5.793931243044248</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>24.32016678323903</v>
+        <v>20.50175782770707</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>25.12395941919571</v>
+        <v>26.19966377426777</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>17.35373187078794</v>
+        <v>19.79894103032569</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>31.19147474127499</v>
+        <v>26.9859492958705</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>21.48556197172308</v>
+        <v>-5.539525694376785</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>27.42107023722543</v>
+        <v>29.51502189639501</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>29.73164635293038</v>
+        <v>37.6000101330066</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>19.3542261444962</v>
+        <v>6.809253206622707</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>31.20834602836874</v>
+        <v>21.51436956071739</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>32.68685219683368</v>
+        <v>27.21013328382519</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>23.47979609543208</v>
+        <v>20.81069598759205</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>35.72472851785231</v>
+        <v>27.99554450224667</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>37.56355508689111</v>
+        <v>32.30752596269615</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>42.05354010069283</v>
+        <v>35.42945692828669</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>44.44409635270491</v>
+        <v>43.7848024930933</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>45.20701950633718</v>
+        <v>47.84594752338517</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>32.26360835239483</v>
+        <v>16.17505413952386</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>38.927765819389</v>
+        <v>36.18650290700446</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>40.1632654848235</v>
+        <v>43.76887297319166</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>19.90561109383664</v>
+        <v>-2.503472640380046</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>27.94338369505009</v>
+        <v>32.55449831426306</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>30.31318929186783</v>
+        <v>40.6421242205809</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>14.48279201774698</v>
+        <v>9.841978235691094</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>24.97723311910699</v>
+        <v>24.54996512038365</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>28.63328605428214</v>
+        <v>30.24788970672176</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>20.5895285373612</v>
+        <v>23.84707081317065</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>33.31242763826591</v>
+        <v>31.03423360576351</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>17.96223685804532</v>
+        <v>-12.97903902464265</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>22.27224175164762</v>
+        <v>22.07498475548282</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>25.53947593919922</v>
+        <v>30.16014444713431</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>17.46022060041603</v>
+        <v>-0.6312144053009163</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>27.28475153603404</v>
+        <v>14.07350999976955</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>30.2767988510666</v>
+        <v>19.7694513092943</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>20.59082719635727</v>
+        <v>13.36975622164623</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>30.33828215648019</v>
+        <v>20.55429230387886</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>34.26006277750608</v>
+        <v>24.86643303999806</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>31.56847061183497</v>
+        <v>27.98782998315385</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>33.57684500055327</v>
+        <v>36.34311279604554</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>35.26362027140172</v>
+        <v>40.40434443976488</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>24.85488325904024</v>
+        <v>8.733895661773026</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>30.12894050542738</v>
+        <v>28.74487567472766</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>32.73481570608822</v>
+        <v>36.32745963862651</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>18.45357139434972</v>
+        <v>-9.94408280299951</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>25.39696007188437</v>
+        <v>25.11336429487113</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>29.02333877638589</v>
+        <v>33.20116163844141</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>14.0310000783554</v>
+        <v>2.400413671053848</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>23.79816401214498</v>
+        <v>17.10800857145755</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>27.89696818275109</v>
+        <v>22.80611073020787</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>17.11704768838001</v>
+        <v>16.40503400966991</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>28.51062545703272</v>
+        <v>23.59188434199364</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>25.09382556229681</v>
+        <v>23.40058693785755</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>22.48800330045452</v>
+        <v>26.52361273393984</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>26.83257311523557</v>
+        <v>34.88094782547574</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>27.60423575057051</v>
+        <v>38.94336925111514</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>18.77510928471204</v>
+        <v>7.269264306962036</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>22.32586398101913</v>
+        <v>27.28432058624986</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>24.42819815451573</v>
+        <v>34.86865169256424</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>21.89675604830376</v>
+        <v>-4.870822130774009</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>26.5144724569578</v>
+        <v>30.18764039875992</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>30.78719318259177</v>
+        <v>38.27603928399542</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>15.54830481790857</v>
+        <v>7.476274158517235</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>19.40852144146643</v>
+        <v>22.18504684348164</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>22.66533044753575</v>
+        <v>27.88377168455286</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>18.75899869854899</v>
+        <v>21.4823167168493</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>24.87603653546473</v>
+        <v>28.6702679153422</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>29.6295485213668</v>
+        <v>32.98478470628384</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>26.75741040104439</v>
+        <v>36.11027586166329</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>31.63239520508294</v>
+        <v>44.46834627945446</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>33.22206071050758</v>
+        <v>48.53106704733312</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>21.03436954562256</v>
+        <v>16.85356586372205</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>25.24846424460346</v>
+        <v>36.87035573275994</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>28.35360853454412</v>
+        <v>44.45557621612209</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>31.83195178018662</v>
+        <v>31.29973350191124</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>30.95431032631411</v>
+        <v>34.42324790013691</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>34.38204293666884</v>
+        <v>42.78069197886401</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>34.24022485567519</v>
+        <v>46.84310549437969</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>24.03752066579311</v>
+        <v>15.16824650407892</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>33.35386411864998</v>
+        <v>35.18399552405599</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>33.64141498694456</v>
+        <v>42.7682268343579</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>23.5420331740671</v>
+        <v>3.027083305493584</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>31.81839066841583</v>
+        <v>38.08630360468424</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>34.59361725030458</v>
+        <v>46.17464478270011</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>14.72437140925578</v>
+        <v>15.37548959330325</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>31.91189040762334</v>
+        <v>30.08482600755092</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>34.40684639501017</v>
+        <v>35.78347448697394</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>22.36303315519534</v>
+        <v>29.38202585622394</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>40.36160138910437</v>
+        <v>36.57042374411861</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>43.41609578592259</v>
+        <v>40.88486762908126</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>44.27827704774555</v>
+        <v>44.01084740531046</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>47.90199775290768</v>
+        <v>52.36902681500299</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>49.07739819877573</v>
+        <v>56.43173966698776</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>33.95439866021815</v>
+        <v>24.75348441907061</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>45.60008122992204</v>
+        <v>44.77096703237299</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>46.66560153410003</v>
+        <v>52.35608771354867</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>37.45805866542368</v>
+        <v>35.34803545224377</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>32.77904753412547</v>
+        <v>38.47155121386361</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>35.8517124455192</v>
+        <v>46.82900146619561</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>37.44796114585989</v>
+        <v>50.89143251654394</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>25.11189851349051</v>
+        <v>19.21638557226566</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>34.04751826017881</v>
+        <v>39.23232322701147</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>36.25612749052779</v>
+        <v>46.81656373126514</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>20.75467403182823</v>
+        <v>7.074976470403662</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>30.90594399038037</v>
+        <v>42.13431697168465</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>34.74133713344608</v>
+        <v>50.22267567458407</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>14.99089577942615</v>
+        <v>19.42394371210747</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>31.75822808754106</v>
+        <v>34.13344042558077</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>35.85512115467645</v>
+        <v>39.83210753767371</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>23.65664146496599</v>
+        <v>33.43056277414478</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>42.12919382519505</v>
+        <v>40.61911518797211</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>47.08824653928086</v>
+        <v>44.93357670786821</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>45.45495889433709</v>
+        <v>48.05955784384553</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>48.64408475604962</v>
+        <v>56.41774342471484</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>51.8910447239564</v>
+        <v>60.48047380928056</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>33.95410654362715</v>
+        <v>28.80203060436445</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>45.83393084402437</v>
+        <v>48.81970184920947</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>48.75393841738988</v>
+        <v>56.40483171765941</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>33.32346122018114</v>
+        <v>27.90584545212533</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>24.4061269754405</v>
+        <v>31.02882719767347</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>27.26902795609079</v>
+        <v>39.38621470090418</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>29.40881184036343</v>
+        <v>43.44873237021198</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>21.20068428730318</v>
+        <v>11.77413006833063</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>29.70095031955906</v>
+        <v>31.78959891933874</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>32.19130616648222</v>
+        <v>39.37405330954453</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>19.87865432749854</v>
+        <v>-0.3662074069107533</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>30.32284564909847</v>
+        <v>34.69260923763277</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>35.47520827027927</v>
+        <v>42.78113939142434</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>14.60822670450525</v>
+        <v>11.98180534361466</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>30.54619979800218</v>
+        <v>26.69091007549121</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>35.80019083704124</v>
+        <v>32.38975477310867</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>19.77067226056544</v>
+        <v>25.98795216484171</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>37.49473955914375</v>
+        <v>33.17619212133086</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>44.08805717670637</v>
+        <v>37.49081291663895</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>39.48998601950588</v>
+        <v>40.61626003208647</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>43.88512767115143</v>
+        <v>48.97438286221523</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>47.46262987357925</v>
+        <v>53.03719987051834</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>30.03170052104474</v>
+        <v>21.35920129784329</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>40.65299980570141</v>
+        <v>41.3764037447583</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>45.00991523431989</v>
+        <v>48.96174750919584</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>29.28747634480403</v>
+        <v>-6.401860291470889</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>29.42230484158585</v>
+        <v>28.65377289313488</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>29.51145407351153</v>
+        <v>36.73986668659705</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>28.99617927171954</v>
+        <v>5.946497031789981</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>29.26392539082195</v>
+        <v>20.65164231837189</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>29.30966047781071</v>
+        <v>26.34829517020881</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>29.16769845800355</v>
+        <v>19.94829673386624</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>29.44052353881676</v>
+        <v>27.13286625772769</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>29.52308977615752</v>
+        <v>31.44557635052848</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>29.32821822262462</v>
+        <v>34.56666103360526</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>29.39957177232738</v>
+        <v>42.92240690932777</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>29.40359094780506</v>
+        <v>46.98403572306716</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>29.30336992318031</v>
+        <v>15.31173791124063</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>29.3798757015895</v>
+        <v>35.32321690121335</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>29.4596856027454</v>
+        <v>42.90665360557653</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>29.09672889581155</v>
+        <v>-3.362567000728923</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>29.33243932445179</v>
+        <v>31.6964897372947</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>29.40850303865695</v>
+        <v>39.7852213916156</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>28.81723178255965</v>
+        <v>8.982462307863265</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>28.9504241149389</v>
+        <v>23.69047831242317</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>28.99252776138507</v>
+        <v>29.38929220069161</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>28.8410279620289</v>
+        <v>22.98791200236365</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>29.08161307613946</v>
+        <v>30.17479596585309</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>29.40714345822945</v>
+        <v>1.494695780012812</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>29.67108706165659</v>
+        <v>36.55108670507098</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>29.68654485466046</v>
+        <v>44.63712277566065</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>29.00869091838256</v>
+        <v>13.84436297447763</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>29.53452417774012</v>
+        <v>28.55007196304194</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>29.59099308680925</v>
+        <v>34.24664843739372</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>29.21917898462032</v>
+        <v>27.84665628985947</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>29.75726973597351</v>
+        <v>35.03167247969275</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>29.79673297298816</v>
+        <v>39.34430965223299</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>29.95265773000638</v>
+        <v>42.4658829937353</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>30.05168378297294</v>
+        <v>50.82173786256777</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>30.11301833624217</v>
+        <v>54.88335875891283</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>29.70610267199129</v>
+        <v>23.21030688487547</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>29.95928506514879</v>
+        <v>43.22247858168276</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>29.99850482903548</v>
+        <v>50.80581546406977</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>29.1733329668769</v>
+        <v>4.535293101593588</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>29.54976701372591</v>
+        <v>39.59510764282702</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>29.57161590684847</v>
+        <v>47.68378161363346</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>28.77808373390782</v>
+        <v>16.88163240679244</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>29.24877611516056</v>
+        <v>31.59021216635931</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>29.32237918666211</v>
+        <v>37.28894970741424</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>29.07128523460485</v>
+        <v>30.88757581572866</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>29.64904709555457</v>
+        <v>38.0749064890179</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>29.3488751366275</v>
+        <v>5.542012205270844</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>29.5505240234296</v>
+        <v>40.59852333179554</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>29.60509369446816</v>
+        <v>48.68457693478495</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>29.09953408403116</v>
+        <v>17.8922403104413</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>29.56221460069609</v>
+        <v>32.5981096006065</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>29.64106789214789</v>
+        <v>38.29470471291159</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>29.38803292795465</v>
+        <v>31.89461641090082</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>29.83881663692955</v>
+        <v>39.07978712951574</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>29.91391733129021</v>
+        <v>43.3924419410809</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>29.99021428541494</v>
+        <v>46.51401669757177</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>30.07495770504866</v>
+        <v>54.86987774898517</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>30.13714010543942</v>
+        <v>58.93151618117491</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>29.63511047189846</v>
+        <v>27.25827632450051</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>29.87531811760267</v>
+        <v>47.27063666159011</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>29.93182997368883</v>
+        <v>54.85398273408799</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>29.06682289503013</v>
+        <v>8.58314498041937</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>29.42390193525331</v>
+        <v>43.64307973072305</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>29.57641857919472</v>
+        <v>51.73177123768715</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>28.80381428300655</v>
+        <v>20.9300452513425</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>29.18202895460541</v>
+        <v>35.63878532206348</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>29.42781736937025</v>
+        <v>41.33754150305224</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>29.09489924788786</v>
+        <v>34.93607146028949</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>29.58870867971351</v>
+        <v>42.12355667166349</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>29.17915659689282</v>
+        <v>-1.89817288378601</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>29.35056781667558</v>
+        <v>33.15781440516337</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>29.4492441239651</v>
+        <v>41.24403946053615</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>29.00164138988708</v>
+        <v>10.45110084036974</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>29.39883876960396</v>
+        <v>25.15657816193407</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>29.53947403203109</v>
+        <v>30.85335086103094</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>29.13119168483308</v>
+        <v>24.45300476487176</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>29.52169976066845</v>
+        <v>31.63786303558771</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>29.68315402330022</v>
+        <v>35.95067712360201</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>29.55182058283451</v>
+        <v>39.07171783299753</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>29.6265192572395</v>
+        <v>47.42751612726152</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>29.69083916868266</v>
+        <v>51.48924117725522</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>29.38073142583318</v>
+        <v>19.81644595970175</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>29.58031759390468</v>
+        <v>39.82833751712536</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>29.66016998181501</v>
+        <v>47.41189749219728</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>28.99214322111229</v>
+        <v>1.141862995891806</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>29.31267690913808</v>
+        <v>36.20127386250652</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>29.54569144741644</v>
+        <v>44.29013680425106</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>28.85407834382479</v>
+        <v>13.48780876596896</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>29.22384464525396</v>
+        <v>28.19615683288674</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>29.57565541885034</v>
+        <v>33.89509058639867</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>28.90874588511</v>
+        <v>27.49336271365365</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>29.3609261039196</v>
+        <v>34.68053544941704</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>29.14548720353899</v>
+        <v>34.48932659556731</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>29.09912807681203</v>
+        <v>37.61199607234499</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>29.27400172235316</v>
+        <v>45.96984679530049</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>29.30542024207974</v>
+        <v>50.03276174490605</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>28.91640343278807</v>
+        <v>18.356309920466</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>29.0343013948982</v>
+        <v>38.37227806450772</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>29.12015814605829</v>
+        <v>45.95758536317333</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>29.26746967712455</v>
+        <v>6.213336509434093</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>29.45981671827351</v>
+        <v>41.27376286332497</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>29.63034633414802</v>
+        <v>49.36322738705103</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>28.89303152766671</v>
+        <v>18.56188214723414</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>28.99575025422974</v>
+        <v>33.27140805206039</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>29.11954102999546</v>
+        <v>38.97096453323473</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>28.98693234147312</v>
+        <v>32.56885831789435</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>29.19836313064522</v>
+        <v>39.75713196666862</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>29.38289503834192</v>
+        <v>44.0723223263381</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>29.29237903830678</v>
+        <v>47.19745734344206</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>29.51994931823304</v>
+        <v>55.5560434439389</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>29.51080326804831</v>
+        <v>59.61925775832201</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>29.06624287931804</v>
+        <v>27.93940952260919</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>29.22382469909677</v>
+        <v>47.95711134447759</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>29.31831909153598</v>
+        <v>55.54330811243658</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>29.71341090033599</v>
+        <v>42.38936422362774</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>29.69829096457387</v>
+        <v>45.51252231105928</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>29.83747504626283</v>
+        <v>53.87048202818794</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>29.84401565889846</v>
+        <v>57.93338906999514</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>29.40814563556907</v>
+        <v>26.25618314397826</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>29.76220203898617</v>
+        <v>46.2728440682884</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>29.8131659113198</v>
+        <v>53.85805157294777</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>29.3344377740007</v>
+        <v>14.11213289144001</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>29.78254229600015</v>
+        <v>49.17331705893917</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>29.93131129644692</v>
+        <v>57.26272388468993</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>28.96665303046076</v>
+        <v>26.46198865111335</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>29.7412867181014</v>
+        <v>41.17207831802096</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>29.86463413316495</v>
+        <v>46.87155844190573</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>29.3423703705433</v>
+        <v>40.46945855678467</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>30.17802992730574</v>
+        <v>47.65817892103626</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>30.34834699750967</v>
+        <v>51.97329637748378</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>30.51328191997413</v>
+        <v>55.09892002412465</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>30.65926062376587</v>
+        <v>63.4576151231468</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>30.75513518424726</v>
+        <v>67.52082152384861</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>30.04847099365327</v>
+        <v>35.84021916841964</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>30.56029227825318</v>
+        <v>55.85861377412498</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>30.61730551619094</v>
+        <v>63.44471074195558</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>29.85568578425801</v>
+        <v>46.43803204653971</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>29.64751324019829</v>
+        <v>49.56119148964722</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>29.77056721312745</v>
+        <v>57.91915737960192</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>29.88171406509212</v>
+        <v>61.9820819582315</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>29.40690973405713</v>
+        <v>30.30468806477807</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>29.73896183596907</v>
+        <v>50.32153763578088</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>29.89019403441435</v>
+        <v>57.90675433477389</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>29.28395561603222</v>
+        <v>18.16039189130509</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>29.75052391697679</v>
+        <v>53.22169626942462</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>29.93323925967771</v>
+        <v>61.3111206212614</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>28.90450960590535</v>
+        <v>30.51080864297358</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>29.62631321760789</v>
+        <v>45.22105862045924</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>29.85441997190683</v>
+        <v>50.92055737719334</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>29.37194590313271</v>
+        <v>44.51836135760077</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>30.17621588014352</v>
+        <v>51.70723625900467</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>30.43888248514521</v>
+        <v>56.02237135030901</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>30.37352188098316</v>
+        <v>59.14799634880369</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>30.52622827399587</v>
+        <v>67.50669761832745</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>30.67317000180737</v>
+        <v>71.56992155361337</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>29.854285957919</v>
+        <v>39.8891312279781</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>30.3490626142791</v>
+        <v>59.9077144773675</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>30.50831359191483</v>
+        <v>67.49382063279216</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>29.72732993658922</v>
+        <v>38.99517008859419</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>29.24059906604503</v>
+        <v>42.11779549145484</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>29.366651369753</v>
+        <v>50.4756986271073</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>29.52284828785547</v>
+        <v>54.53870982863059</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>29.17422927829212</v>
+        <v>22.86176061133374</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>29.50698083898331</v>
+        <v>42.87814135318165</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>29.7050283936904</v>
+        <v>50.46357194325895</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>29.18799015586733</v>
+        <v>10.71853614124512</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>29.6703218719103</v>
+        <v>45.77931663575844</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>30.0464972975722</v>
+        <v>53.86891243565361</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>28.86631504388163</v>
+        <v>23.06799830310563</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>29.49107566096727</v>
+        <v>37.77785627923407</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>29.95031249742522</v>
+        <v>43.47753262144527</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>28.99602675949479</v>
+        <v>37.07507875441586</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>29.72288456452069</v>
+        <v>44.26364118303109</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>30.24255949758172</v>
+        <v>48.57893555030369</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>29.6573378043463</v>
+        <v>51.70402650404338</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>29.80288972096447</v>
+        <v>60.06266501747455</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>30.05029785943406</v>
+        <v>64.1259755806812</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>29.23657173558752</v>
+        <v>32.44562992056972</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>29.5998786973386</v>
+        <v>52.46374434660122</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>29.94362040686426</v>
+        <v>60.05006440317634</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLrbf_4/out_of_sample/additive/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_4/out_of_sample/additive/ranking_test2/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-19.36895297632004</v>
+        <v>-19.36895297637086</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>15.68469632899274</v>
+        <v>15.68469632892555</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>23.7705515450894</v>
+        <v>23.77055154506427</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-7.022234075050228</v>
+        <v>-7.022234075123102</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7.681452372552535</v>
+        <v>7.681452372575727</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>13.37791950421859</v>
+        <v>13.3779195042187</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6.978363675646783</v>
+        <v>6.978363675639848</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>14.16178240912966</v>
+        <v>14.16178240910863</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>18.47434483447892</v>
+        <v>18.47434483452644</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>21.59562280272456</v>
+        <v>21.59562280267772</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>29.95079609782629</v>
+        <v>29.95079609787654</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>34.01233606198871</v>
+        <v>34.0123360619778</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2.342200257880954</v>
+        <v>2.342200257871291</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>22.35198698848574</v>
+        <v>22.35198698845982</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>29.93517166583984</v>
+        <v>29.93517166581108</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-16.3290298631809</v>
+        <v>-16.32902986319443</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>18.72804287689535</v>
+        <v>18.72804287679997</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>26.81653592956427</v>
+        <v>26.81653592952733</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-3.985638792710525</v>
+        <v>-3.985638792753385</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>10.7209182600132</v>
+        <v>10.72091826001138</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>16.41954642369131</v>
+        <v>16.41954642373837</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>10.01860880958957</v>
+        <v>10.01860880957627</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>17.20434188594873</v>
+        <v>17.20434188590769</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-11.47276156839923</v>
+        <v>-11.47276156826042</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>23.58164544778361</v>
+        <v>23.58164544791276</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>31.66744294556968</v>
+        <v>31.66744294561857</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.8752671527221807</v>
+        <v>0.8752671526706806</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>15.57951727765072</v>
+        <v>15.57951727767095</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>21.27590803615004</v>
+        <v>21.27590803618755</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>14.8763584977932</v>
+        <v>14.87635849782992</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>22.06022387662886</v>
+        <v>22.06022387666695</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>26.3727133856035</v>
+        <v>26.3727133856268</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>29.49448000343653</v>
+        <v>29.49448000345074</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>37.84976228678982</v>
+        <v>37.84976228681676</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>41.91129433516817</v>
+        <v>41.91129433521422</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>10.24040449944214</v>
+        <v>10.24040449941509</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>30.25088390745241</v>
+        <v>30.25088390746617</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>37.83396876742568</v>
+        <v>37.83396876736406</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>-8.431534466075341</v>
+        <v>-8.431534466127978</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>26.62629604734007</v>
+        <v>26.62629604737202</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>34.71473142085727</v>
+        <v>34.71473142086136</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>3.913166549874113</v>
+        <v>3.913166549837506</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>18.62028733267851</v>
+        <v>18.62028733270409</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>24.31883915370559</v>
+        <v>24.3188391537846</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>25.10408761270212</v>
+        <v>25.10408761270781</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-7.42552872390997</v>
+        <v>-7.425528723869157</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>27.6289984922518</v>
+        <v>27.62899849228614</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>35.71481352380686</v>
+        <v>35.71481352383244</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>4.923060892596077</v>
+        <v>4.923060892527069</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>19.627471316735</v>
+        <v>19.62747131671409</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>25.32388071427368</v>
+        <v>25.32388071440169</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>18.9242350232119</v>
+        <v>18.92423502316847</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>26.10825492828547</v>
+        <v>26.10825492824022</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>30.42076207743553</v>
+        <v>30.42076207744883</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>33.54253010935945</v>
+        <v>33.54253010933478</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>41.89781857603912</v>
+        <v>41.89781857602252</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>45.95936816030865</v>
+        <v>45.95936816031206</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>14.28829034407732</v>
+        <v>14.28829034403605</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>34.29895838861494</v>
+        <v>34.29895838860391</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>41.88205244029057</v>
+        <v>41.88205244029125</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>-4.383766185177315</v>
+        <v>-4.383766185195846</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>30.67418453580267</v>
+        <v>30.67418453578517</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>38.76263744676321</v>
+        <v>38.76263744680016</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>7.961495780955765</v>
+        <v>7.961495780899945</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>22.66877687249376</v>
+        <v>22.66877687251593</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>28.36734733473923</v>
+        <v>28.36734733470967</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>21.96631987927213</v>
+        <v>21.9663198792711</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>29.15265418017776</v>
+        <v>29.15265418017753</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>-14.86539472161616</v>
+        <v>-14.86539472158365</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>20.18860867722088</v>
+        <v>20.18860867721951</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>28.27459515437311</v>
+        <v>28.2745951543855</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>-2.517759452728178</v>
+        <v>-2.517759452702713</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>12.1862590190546</v>
+        <v>12.18625901911917</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>17.88284599711829</v>
+        <v>17.8828459971101</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>11.48294251984071</v>
+        <v>11.48294251985208</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>18.6666499903361</v>
+        <v>18.66664999035225</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>22.97931641038866</v>
+        <v>22.97931641036183</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>26.10055040385037</v>
+        <v>26.10055040387584</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>34.45577611639253</v>
+        <v>34.4557761164155</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>38.51741231533952</v>
+        <v>38.5174123153518</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>6.846779121415629</v>
+        <v>6.846779121409377</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>26.85697840531196</v>
+        <v>26.8569784053273</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>34.44028635269665</v>
+        <v>34.4402863527004</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>-11.82472904257651</v>
+        <v>-11.82472904258641</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>23.2326978147476</v>
+        <v>23.23269781478069</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>31.32132215385064</v>
+        <v>31.3213221538113</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0.5195784557943668</v>
+        <v>0.5195784558082366</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>15.22646755984265</v>
+        <v>15.22646755992417</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>20.92521558813228</v>
+        <v>20.92521558819788</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>14.52393031045863</v>
+        <v>14.52393031051138</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>21.70995214937505</v>
+        <v>21.70995214938142</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>21.51872484892765</v>
+        <v>21.51872484892015</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>24.64158757995045</v>
+        <v>24.64158757994897</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>32.9988656493453</v>
+        <v>32.99886564932165</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>37.06169173065592</v>
+        <v>37.06169173065216</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>5.387402012884927</v>
+        <v>5.387402012849684</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>25.40167773314936</v>
+        <v>25.40167773309866</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>32.9867330158525</v>
+        <v>32.98673301585125</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>-6.752474894085658</v>
+        <v>-6.752474894067809</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>28.30596748013095</v>
+        <v>28.30596748007434</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>36.39519337594236</v>
+        <v>36.39519337595168</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>5.594432408705011</v>
+        <v>5.594432408666471</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>20.30249937794763</v>
+        <v>20.30249937796923</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>26.00187009844165</v>
+        <v>26.00187009845177</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>19.60020651648363</v>
+        <v>19.60020651652047</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>26.7873292931095</v>
+        <v>26.78732929310961</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>31.10237195107396</v>
+        <v>31.10237195113296</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>34.2277000965958</v>
+        <v>34.22770009659808</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>42.58571354072188</v>
+        <v>42.58571354072586</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>46.64883897905775</v>
+        <v>46.64883897904127</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>14.97115288905587</v>
+        <v>14.97115288901505</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>34.9871622908069</v>
+        <v>34.98716229081997</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>42.57310700410067</v>
+        <v>42.57310700413171</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>29.41839768477831</v>
+        <v>29.41839768471987</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>32.54174901759557</v>
+        <v>32.54174901766583</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>40.89913607582053</v>
+        <v>40.89913607584224</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>44.96195425086847</v>
+        <v>44.96195425088506</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>13.28691046233751</v>
+        <v>13.28691046232989</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>33.30187893324972</v>
+        <v>33.30187893329235</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>40.88683442664938</v>
+        <v>40.8868344266479</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>1.145956775367999</v>
+        <v>1.145956775406994</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>36.20515693293776</v>
+        <v>36.20515693294958</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>44.29432513523573</v>
+        <v>44.29432513522027</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>13.49417414793179</v>
+        <v>13.49417414792543</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>28.20280485479434</v>
+        <v>28.20280485477161</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>33.90209922233708</v>
+        <v>33.9020992223962</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>27.50044197169557</v>
+        <v>27.50044197165089</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>34.68801144305728</v>
+        <v>34.68801144304648</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>39.00298120196174</v>
+        <v>39.00298120196674</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>42.12879796828718</v>
+        <v>42.12879796823841</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>50.48692040590736</v>
+        <v>50.4869204059093</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>54.55003793204065</v>
+        <v>54.55003793201518</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>22.87159775271453</v>
+        <v>22.87159775272487</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>42.88829990894629</v>
+        <v>42.88829990895299</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>50.47414482659263</v>
+        <v>50.47414482657955</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>33.46698189351417</v>
+        <v>33.46698189351223</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>36.59033458100833</v>
+        <v>36.59033458097263</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>44.94772781284012</v>
+        <v>44.94772781282034</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>49.01056352479412</v>
+        <v>49.01056352473181</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>17.3353317712694</v>
+        <v>17.33533177122677</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>37.35048888516399</v>
+        <v>37.3504888851832</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>44.93545357444298</v>
+        <v>44.93545357446413</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>5.194132166716308</v>
+        <v>5.194132166689592</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>40.25345253316032</v>
+        <v>40.25345253314998</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>48.34263826269494</v>
+        <v>48.34263826265288</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>17.5429105157064</v>
+        <v>17.54291051568764</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>32.25170153047423</v>
+        <v>32.25170153048594</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>37.95101453220757</v>
+        <v>37.95101453223383</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>31.54926114887854</v>
+        <v>31.54926114882249</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>38.73698515495408</v>
+        <v>38.73698515496522</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>43.05197254957834</v>
+        <v>43.05197254954799</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>46.17779066677627</v>
+        <v>46.17779066675364</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>54.53591927587075</v>
+        <v>54.53591927588086</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>58.59905433676357</v>
+        <v>58.5990543367215</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>26.92042618938495</v>
+        <v>26.92042618936915</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>46.93731698544371</v>
+        <v>46.93731698539903</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>54.52317109229346</v>
+        <v>54.52317109228732</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>26.02443912133236</v>
+        <v>26.02443912131712</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>29.14725777733968</v>
+        <v>29.14725777732161</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>37.50458825770425</v>
+        <v>37.50458825770936</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>41.56751058978812</v>
+        <v>41.56751058979358</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>9.892723494877195</v>
+        <v>9.892723494866168</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>29.90741179883576</v>
+        <v>29.90741179882405</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>37.49259037227971</v>
+        <v>37.49259037229074</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>-2.247404456919135</v>
+        <v>-2.247404456924023</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>32.81139204650361</v>
+        <v>32.81139204650326</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>40.90074921751914</v>
+        <v>40.90074921750925</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>10.10041933564371</v>
+        <v>10.10041933561541</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>24.80881836525241</v>
+        <v>24.80881836533836</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>30.50830894632082</v>
+        <v>30.50830894632355</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>24.10629772368946</v>
+        <v>24.10629772365478</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>31.29370927027929</v>
+        <v>31.29370927026655</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>35.60885593538949</v>
+        <v>35.60885593539938</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>38.73414001638508</v>
+        <v>38.73414001636564</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>47.09220587227201</v>
+        <v>47.09220587225644</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>51.15542755800919</v>
+        <v>51.1554275580317</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>19.47724405892989</v>
+        <v>19.47724405893091</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>39.49366605097162</v>
+        <v>39.49366605094581</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>47.07973405196838</v>
+        <v>47.07973405200431</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>-9.828805699292339</v>
+        <v>-9.828805699274263</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>25.22342915890425</v>
+        <v>25.22342915887878</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>33.30817916833399</v>
+        <v>33.30817916827953</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>2.518526804984553</v>
+        <v>2.518526804977505</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>17.22247685867597</v>
+        <v>17.22247685876862</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>22.91807774034606</v>
+        <v>22.91807774041052</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>16.51887008175486</v>
+        <v>16.51887008174463</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>23.70302036959134</v>
+        <v>23.7030203695686</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>28.01488088076149</v>
+        <v>28.01488088071397</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>31.13599650672455</v>
+        <v>31.13599650667054</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>39.49097801145677</v>
+        <v>39.49097801140777</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>43.55195382876951</v>
+        <v>43.55195382873585</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>11.88296832587803</v>
+        <v>11.8829683258902</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>31.89269426604238</v>
+        <v>31.89269426604965</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>39.47487372349024</v>
+        <v>39.47487372345579</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>-6.793346211233434</v>
+        <v>-6.793346211237072</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>28.26231176776019</v>
+        <v>28.26231176774984</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>36.34969924228465</v>
+        <v>36.34969924230227</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>5.550658349520681</v>
+        <v>5.550658349463724</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>20.25747874138067</v>
+        <v>20.25747874135055</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>25.95524031127564</v>
+        <v>25.95524031123551</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>19.55465118990679</v>
+        <v>19.55465118989064</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>26.74111560297609</v>
+        <v>26.74111560295596</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>-1.933371142655297</v>
+        <v>-1.933371142658821</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>33.11962137494827</v>
+        <v>33.1196213749277</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>41.20431365884922</v>
+        <v>41.20431365881273</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>10.41527106606264</v>
+        <v>10.41527106603899</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>25.11978476203836</v>
+        <v>25.11978476209179</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>30.8153092668794</v>
+        <v>30.8153092668885</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>24.41610789949862</v>
+        <v>24.41610789952352</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>31.60070480640143</v>
+        <v>31.6007048063613</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>35.91249239862037</v>
+        <v>35.91249239863333</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>39.03409664192946</v>
+        <v>39.03409664192355</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>47.38918712838807</v>
+        <v>47.38918712836169</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>51.45015502668257</v>
+        <v>51.45015502671895</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>19.78041554864392</v>
+        <v>19.78041554863324</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>39.79083412209962</v>
+        <v>39.79083412204687</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>47.37291376135652</v>
+        <v>47.3729137613572</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>1.103392198959277</v>
+        <v>1.103392198926194</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>36.15980790020551</v>
+        <v>36.1598079001838</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>44.24713768831332</v>
+        <v>44.24713768827831</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>13.44870658952919</v>
+        <v>13.44870658946541</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>28.15609067667508</v>
+        <v>28.15609067668509</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>33.85377590022102</v>
+        <v>33.85377590021783</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>27.453193087452</v>
+        <v>27.45319308744688</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>34.64010416330193</v>
+        <v>34.64010416329477</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>2.113416312009285</v>
+        <v>2.113416311979385</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>37.16652901605544</v>
+        <v>37.1665290160019</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>45.25123882951919</v>
+        <v>45.25123882946701</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>14.46261936281024</v>
+        <v>14.46261936276635</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>29.16729334099926</v>
+        <v>29.16729334098482</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>34.86283648129716</v>
+        <v>34.86283648124896</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>28.46353896885142</v>
+        <v>28.4635389688878</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>35.64829038567751</v>
+        <v>35.64829038566318</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>39.96009561485487</v>
+        <v>39.96009561485305</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>43.08170127943372</v>
+        <v>43.08170127946192</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>51.43679794707082</v>
+        <v>51.43679794703001</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>55.49778337837375</v>
+        <v>55.49778337839114</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>23.82785594120303</v>
+        <v>23.82785594120133</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>43.83846313268901</v>
+        <v>43.83846313268082</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>51.42055195993185</v>
+        <v>51.42055195987069</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>5.150715044501389</v>
+        <v>5.150715044546978</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>40.20725093979348</v>
+        <v>40.20725093978836</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>48.29459826142357</v>
+        <v>48.2945982614679</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>17.49659033256233</v>
+        <v>17.49659033249969</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>32.2041347113805</v>
+        <v>32.20413471137481</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>37.90183857222637</v>
+        <v>37.90183857225946</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>31.5011596178279</v>
+        <v>31.5011596178287</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>38.68822521283544</v>
+        <v>38.68822521284988</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>-5.325789363096483</v>
+        <v>-5.325789363070108</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>29.72679955786889</v>
+        <v>29.72679955784297</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>37.81168081230822</v>
+        <v>37.81168081224398</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>7.022459436037416</v>
+        <v>7.02245943597125</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>21.72674148607194</v>
+        <v>21.72674148600998</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>27.42246219978488</v>
+        <v>27.42246219978681</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>21.02290691665183</v>
+        <v>21.02290691663932</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>28.20734591776448</v>
+        <v>28.20734591771537</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>32.51931041119399</v>
+        <v>32.51931041116261</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>35.64038208484879</v>
+        <v>35.64038208487198</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>43.99541600228957</v>
+        <v>43.99541600230014</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>48.05648804236073</v>
+        <v>48.05648804228309</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>16.38700519187187</v>
+        <v>16.38700519184982</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>36.39714365308685</v>
+        <v>36.39714365308071</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>43.97944636433845</v>
+        <v>43.97944636433152</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>-2.2895873895962</v>
+        <v>-2.289587389550498</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>32.76642467645154</v>
+        <v>32.76642467638572</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>40.85394342128716</v>
+        <v>40.85394342128614</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>10.05533352661421</v>
+        <v>10.05533352658772</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>24.76248594214479</v>
+        <v>24.76248594213228</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>30.46036736238016</v>
+        <v>30.46036736237993</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>24.05943060128237</v>
+        <v>24.05943060127702</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>31.24618375292112</v>
+        <v>31.24618375290066</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>31.05479635097532</v>
+        <v>31.05479635095258</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>34.17749678810576</v>
+        <v>34.17749678809326</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>42.53458289651797</v>
+        <v>42.53458289647727</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>46.59684465326148</v>
+        <v>46.59684465326409</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>14.92370583419386</v>
+        <v>14.92370583419409</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>34.93792037093163</v>
+        <v>34.93792037095266</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>42.52197009248271</v>
+        <v>42.5219700925399</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>2.782095650750016</v>
+        <v>2.782095650714545</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>37.83912306790165</v>
+        <v>37.83912306791483</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>45.92724335580845</v>
+        <v>45.92724335579469</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>15.12961619976516</v>
+        <v>15.12961619971036</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>29.83794630630342</v>
+        <v>29.83794630630626</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>35.53645041132636</v>
+        <v>35.53645041128942</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>29.13513536755323</v>
+        <v>29.13513536752742</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>36.32298929689289</v>
+        <v>36.3229892969054</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>40.63732972448684</v>
+        <v>40.63732972449343</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>43.76249542362614</v>
+        <v>43.76249542363683</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>52.12031682246464</v>
+        <v>52.12031682244918</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>56.18287792184918</v>
+        <v>56.18287792182951</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>24.50634306493037</v>
+        <v>24.50634306490991</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>44.52229107943747</v>
+        <v>44.52229107939507</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>52.10723017554442</v>
+        <v>52.10723017555409</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>38.95371201768312</v>
+        <v>38.95371201766584</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>42.07690102490022</v>
+        <v>42.07690102494671</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>50.43409611579755</v>
+        <v>50.43409611580926</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>54.49634996309015</v>
+        <v>54.49634996314085</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>22.82245712956165</v>
+        <v>22.8224571295338</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>42.83736437277087</v>
+        <v>42.83736437274893</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>50.4213143042221</v>
+        <v>50.42131430424927</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>10.67977022043345</v>
+        <v>10.67977022037774</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>23.02860072398715</v>
+        <v>23.02860072390165</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>37.73749453292367</v>
+        <v>37.73749453294845</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>43.43592228147059</v>
+        <v>43.43592228146456</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>37.03461357052054</v>
+        <v>37.03461357053123</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>44.22291416813328</v>
+        <v>44.22291416815431</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>48.5371816939766</v>
+        <v>48.53718169403697</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>51.66283598171974</v>
+        <v>51.66283598169814</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>60.02076636784437</v>
+        <v>60.02076636789462</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>64.08331955174339</v>
+        <v>64.08331955178681</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>32.40603066237957</v>
+        <v>32.40603066240765</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>52.42267138693347</v>
+        <v>52.4226713869263</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>60.00751068663242</v>
+        <v>60.00751068661764</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>43.0018507052535</v>
+        <v>43.00185070526987</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>46.12504107477803</v>
+        <v>46.12504107482294</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>54.48224233716126</v>
+        <v>54.48224233715467</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>58.54451371839382</v>
+        <v>58.54451371836506</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>26.87043294050471</v>
+        <v>26.87043294054393</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>46.88552880864909</v>
+        <v>46.8855288086591</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>54.46948793221434</v>
+        <v>54.46948793227732</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>14.72750014323383</v>
+        <v>14.72750014322667</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>49.78540548843835</v>
+        <v>49.785405488413</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>57.87348559866819</v>
+        <v>57.8734855986475</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>27.07689157009047</v>
+        <v>27.07689157006057</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>41.78594567021758</v>
+        <v>41.78594567022804</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>47.48439204894424</v>
+        <v>47.48439204890001</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>41.08298721302622</v>
+        <v>41.08298721295665</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>48.27144232915173</v>
+        <v>48.27144232916185</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>52.58572748746854</v>
+        <v>52.5857274874466</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>55.71138313342026</v>
+        <v>55.71138313341799</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>64.06931968891166</v>
+        <v>64.06931968889882</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>68.13189040451761</v>
+        <v>68.13189040450771</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>36.45441356810357</v>
+        <v>36.45441356811539</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>56.47124291422477</v>
+        <v>56.47124291417679</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>64.05609139942277</v>
+        <v>64.0560913994214</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>35.55996849752619</v>
+        <v>35.55996849758656</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>38.68262488257351</v>
+        <v>38.68262488260489</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>47.03976339744275</v>
+        <v>47.03976339742933</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>51.10212139267724</v>
+        <v>51.10212139265973</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>19.42848523858759</v>
+        <v>19.42848523856417</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>39.44311232699152</v>
+        <v>39.44311232698629</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>47.02728532315717</v>
+        <v>47.02728532315114</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>7.286624026243366</v>
+        <v>7.286624026239956</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>42.34400554248651</v>
+        <v>42.34400554249401</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>50.432257089713</v>
+        <v>50.43225708969356</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>19.63506099269073</v>
+        <v>19.63506099261536</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>34.3437231317992</v>
+        <v>34.34372313186469</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>40.04234708307575</v>
+        <v>40.04234708308973</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>33.64068442288038</v>
+        <v>33.64068442285946</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>40.82882709823576</v>
+        <v>40.82882709825633</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>45.14327152065419</v>
+        <v>45.14327152063543</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>48.26839317768286</v>
+        <v>48.26839317767831</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>56.62626698399475</v>
+        <v>56.62626698395371</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>60.68892431845295</v>
+        <v>60.68892431843897</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>29.01189209545367</v>
+        <v>29.01189209546492</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>49.02825266778955</v>
+        <v>49.02825266777693</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>56.61331503575109</v>
+        <v>56.61331503572961</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>-10.21563768568746</v>
+        <v>-10.21563768569792</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>24.83808910046746</v>
+        <v>24.83808910046928</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>32.92303630401266</v>
+        <v>32.92303630401107</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>2.131734249753258</v>
+        <v>2.131734249762125</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>16.83637033081202</v>
+        <v>16.83637033081964</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>22.5320982768963</v>
+        <v>22.53209827692495</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>16.13274241831396</v>
+        <v>16.13274241838672</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>23.31726430098336</v>
+        <v>23.31726430102099</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>27.62921565713298</v>
+        <v>27.62921565718744</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>30.75041886141224</v>
+        <v>30.75041886138495</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>39.10575547010733</v>
+        <v>39.10575547010676</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>43.16683969722072</v>
+        <v>43.16683969722583</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>11.49646349681921</v>
+        <v>11.49646349683922</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>31.5072016796426</v>
+        <v>31.50720167966374</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>39.08954453492895</v>
+        <v>39.08954453495874</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>-7.181965772001668</v>
+        <v>-7.181965772028612</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>27.87518422039278</v>
+        <v>27.87518422041108</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>35.9627690296308</v>
+        <v>35.96276902958532</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>5.162078030159414</v>
+        <v>5.162078030153616</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>19.86958449703473</v>
+        <v>19.86958449700199</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>25.56747326187934</v>
+        <v>25.56747326184773</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>19.16673582995229</v>
+        <v>19.16673582998072</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>26.35357186619483</v>
+        <v>26.35357186616971</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>-2.319990294994859</v>
+        <v>-2.319990294980308</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>32.73449418586272</v>
+        <v>32.73449418589956</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>40.81938365673926</v>
+        <v>40.81938365673391</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>10.02869138443878</v>
+        <v>10.02869138445219</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>24.73389113561841</v>
+        <v>24.73389113562887</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>30.42954269696389</v>
+        <v>30.42954269697469</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>24.03019313077294</v>
+        <v>24.03019313079215</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>31.21516165473138</v>
+        <v>31.21516165473832</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>35.52704008501058</v>
+        <v>35.52704008503286</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>38.64873193086242</v>
+        <v>38.64873193089198</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>47.00417752691811</v>
+        <v>47.0041775269214</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>51.06525383275112</v>
+        <v>51.06525383277852</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>19.39412362682281</v>
+        <v>19.39412362683668</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>39.40555447612342</v>
+        <v>39.40555447614252</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>46.98779750518116</v>
+        <v>46.98779750516808</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>0.7149855105315552</v>
+        <v>0.7149855106441052</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>35.77289326054773</v>
+        <v>35.77289326056967</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>43.86042037623707</v>
+        <v>43.86042037626139</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>13.06033918280507</v>
+        <v>13.06033918278109</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>27.7684093724419</v>
+        <v>27.76840937250693</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>33.46622178319608</v>
+        <v>33.46622178320597</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>27.06549066095038</v>
+        <v>27.06549066096539</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>34.25277338202778</v>
+        <v>34.25277338203505</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>1.726927463031465</v>
+        <v>1.726927463057841</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>36.78153213494982</v>
+        <v>36.78153213496926</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>44.86643913669791</v>
+        <v>44.86643913671099</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>14.07617000882754</v>
+        <v>14.07617000878854</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>28.78153004852066</v>
+        <v>28.78153004848098</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>34.47720024676317</v>
+        <v>34.47720024679125</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>28.07775452884874</v>
+        <v>28.0777545288592</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>35.2628775689032</v>
+        <v>35.26287756890343</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>39.57477363744277</v>
+        <v>39.57477363740821</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>42.69646690601899</v>
+        <v>42.69646690600819</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>51.05191868476759</v>
+        <v>51.05191868474008</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>55.11301252431831</v>
+        <v>55.11301252428773</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>23.44169435225222</v>
+        <v>23.44169435223335</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>43.45331382781529</v>
+        <v>43.45331382781495</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>51.03556604532917</v>
+        <v>51.03556604533633</v>
       </c>
     </row>
     <row r="420">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>39.82046662440001</v>
+        <v>39.82046662443286</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>47.90801127464925</v>
+        <v>47.90801127469984</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>17.10835326937075</v>
+        <v>17.10835326934289</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>31.81658375723594</v>
+        <v>31.81658375719581</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>37.51441480670137</v>
+        <v>37.51441480674958</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>31.11358753610119</v>
+        <v>31.11358753606458</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>38.30102478307918</v>
+        <v>38.30102478305371</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>-5.712513524498213</v>
+        <v>-5.712513524530728</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>29.34156733786124</v>
+        <v>29.34156733787398</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>37.42664579322439</v>
+        <v>37.42664579316402</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>6.635774744744303</v>
+        <v>6.635774744781479</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>21.34074283435546</v>
+        <v>21.34074283436922</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>27.03659061927265</v>
+        <v>27.03659061931767</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>20.63688711685341</v>
+        <v>20.63688711680816</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>27.82169772291461</v>
+        <v>27.82169772292416</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>32.13375306778476</v>
+        <v>32.13375306781045</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>35.25491232275424</v>
+        <v>35.254912322763</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>43.61030134828291</v>
+        <v>43.61030134826313</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>47.6714818017005</v>
+        <v>47.67148180173358</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>16.00060823538006</v>
+        <v>16.00060823537608</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>36.01175895607872</v>
+        <v>36.01175895609156</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>43.59422507041943</v>
+        <v>43.59422507040738</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>-2.678099116916719</v>
+        <v>-2.678099116890003</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>32.37940497558912</v>
+        <v>32.37940497558366</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>40.46712106179375</v>
+        <v>40.46712106183946</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>9.66686107935589</v>
+        <v>9.666861079377263</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>24.37469958202342</v>
+        <v>24.37469958201091</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>30.07270820394154</v>
+        <v>30.0727082039653</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>23.67162311319378</v>
+        <v>23.67162311320299</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>30.85874789842745</v>
+        <v>30.85874789844473</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>30.66734357262401</v>
+        <v>30.66734357265505</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>33.79013174424522</v>
+        <v>33.79013174431457</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>42.14757301542198</v>
+        <v>42.14757301543641</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>46.20994325166753</v>
+        <v>46.20994325168174</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>14.53541364563016</v>
+        <v>14.53541364562732</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>34.5506405306965</v>
+        <v>34.55064053067547</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>42.1348537926205</v>
+        <v>42.13485379263266</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>2.393996916262431</v>
+        <v>2.393996916295514</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>37.45251640436884</v>
+        <v>37.45251640437464</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>45.54083405781983</v>
+        <v>45.54083405776185</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>14.74155686301827</v>
+        <v>14.74155686302816</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>29.45057311800797</v>
+        <v>29.45057311803696</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>35.14920444560374</v>
+        <v>35.14920444564205</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>28.74774105721684</v>
+        <v>28.74774105726424</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>35.93596668034245</v>
+        <v>35.93596668035359</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>40.25039809040157</v>
+        <v>40.25039809039486</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>43.37565160946149</v>
+        <v>43.37565160946036</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>51.73382820162617</v>
+        <v>51.733828201648</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>55.7964977954038</v>
+        <v>55.79649779542563</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>24.11857202064623</v>
+        <v>24.11857202055949</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>44.13553246025304</v>
+        <v>44.13553246021939</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>51.72063511959293</v>
+        <v>51.72063511963386</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>38.56647218790982</v>
+        <v>38.5664721879462</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>41.68974895394586</v>
+        <v>41.68974895389845</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>50.04729921299263</v>
+        <v>50.04729921298854</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>54.10966153764223</v>
+        <v>54.10966153767304</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>22.43437788683587</v>
+        <v>22.43437788687236</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>42.45029751161797</v>
+        <v>42.45029751163616</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>50.03441097560056</v>
+        <v>50.03441097562943</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>10.29188438721047</v>
+        <v>10.29188438723207</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>45.35116164305912</v>
+        <v>45.35116164306174</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>53.43942158849307</v>
+        <v>53.43942158850273</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>22.6407543287409</v>
+        <v>22.64075432869623</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>37.35033431348034</v>
+        <v>37.35033431348977</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>43.04888927677774</v>
+        <v>43.04888927685197</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>36.64743222200962</v>
+        <v>36.64743222200371</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>43.83610453582508</v>
+        <v>43.83610453582678</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>48.15046303725494</v>
+        <v>48.1504630372637</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>51.27620516933694</v>
+        <v>51.27620516933603</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>59.63449075403599</v>
+        <v>59.6344907540685</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>63.69715243042395</v>
+        <v>63.69715243046715</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>32.01847259251024</v>
+        <v>32.01847259251922</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>52.03612577535767</v>
+        <v>52.03612577539962</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>59.62112863042494</v>
+        <v>59.62112863046655</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>42.61474122827592</v>
+        <v>42.61474122824693</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>45.73801935742886</v>
+        <v>45.73801935741863</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>54.09557578951767</v>
+        <v>54.0955757895337</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>58.15795564887895</v>
+        <v>58.15795564884143</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>26.48248404688916</v>
+        <v>26.48248404683869</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>46.49859230460998</v>
+        <v>46.4985923045836</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>54.08271496121136</v>
+        <v>54.08271496121306</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>14.33974464679937</v>
+        <v>14.33974464679414</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>49.39914210251214</v>
+        <v>49.39914210253919</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>57.48741957228645</v>
+        <v>57.48741957232522</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>26.689175535395</v>
+        <v>26.68917553542729</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>41.39891581774219</v>
+        <v>41.39891581770421</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>47.09748941273215</v>
+        <v>47.09748941282242</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>40.69593622652899</v>
+        <v>40.69593622654366</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>47.88476306497676</v>
+        <v>47.88476306493958</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>52.19913920025709</v>
+        <v>52.19913920028142</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>55.3248826918089</v>
+        <v>55.32488269183539</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>63.68317444731218</v>
+        <v>63.68317444731183</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>67.74585365594436</v>
+        <v>67.745853655958</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>36.06698586404689</v>
+        <v>36.06698586399641</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>56.08482767678372</v>
+        <v>56.08482767676917</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>63.66983971784435</v>
+        <v>63.6698397178257</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>35.17262360770979</v>
+        <v>35.17262360773548</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>38.29536772980082</v>
+        <v>38.29536772985175</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>46.6528614115528</v>
+        <v>46.65286141155485</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>50.71532789013332</v>
+        <v>50.71532789021165</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>19.04030093038801</v>
+        <v>19.04030093037414</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>39.05594038390216</v>
+        <v>39.0559403838709</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>46.64027692549376</v>
+        <v>46.64027692551752</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>6.898633156198279</v>
+        <v>6.898633156199416</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>41.95750675638708</v>
+        <v>41.95750675637117</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>50.04595567573204</v>
+        <v>50.04595567574898</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>19.24710955913013</v>
+        <v>19.24710955912399</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>33.95645785869913</v>
+        <v>33.95645785874074</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>39.65520903926227</v>
+        <v>39.65520903932605</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>33.25339801556589</v>
+        <v>33.2533980155735</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>40.44191239482705</v>
+        <v>40.44191239484535</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>44.75644780610065</v>
+        <v>44.75644780608587</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>47.88165728615325</v>
+        <v>47.88165728618053</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>56.23988628931345</v>
+        <v>56.23988628930459</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>60.30265212209832</v>
+        <v>60.30265212210605</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>28.6242289624717</v>
+        <v>28.62422896243691</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>48.64160197677261</v>
+        <v>48.64160197676738</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>56.22682791299217</v>
+        <v>56.22682791301218</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>-17.48214163258655</v>
+        <v>-17.48214163252528</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>17.57152806854804</v>
+        <v>17.57152806859659</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>25.65655650563877</v>
+        <v>25.65655650568845</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-5.135233352141832</v>
+        <v>-5.13523335214547</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>9.569159042171627</v>
+        <v>9.569159042199708</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>15.26498050932076</v>
+        <v>15.26498050936976</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>8.86563307044019</v>
+        <v>8.865633070492372</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>16.04988042761493</v>
+        <v>16.04988042758333</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>20.36191717180071</v>
+        <v>20.36191717184072</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>23.48335806557798</v>
+        <v>23.48335806563141</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>31.83858846028584</v>
+        <v>31.83858846026492</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>35.89972387618177</v>
+        <v>35.8997238761471</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>4.229772468099263</v>
+        <v>4.229772468081983</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>24.24033994014513</v>
+        <v>24.2403399401374</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>31.82280064067395</v>
+        <v>31.82280064064792</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>-14.44792792611026</v>
+        <v>-14.44792792610981</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>20.60916506853612</v>
+        <v>20.60916506850338</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>28.69683113226454</v>
+        <v>28.6968311322642</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-2.104347851052644</v>
+        <v>-2.104347851127905</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>12.60291501118507</v>
+        <v>12.60291501125226</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>18.30089730934406</v>
+        <v>18.30089730930995</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>11.90016825202195</v>
+        <v>11.90016825212142</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>19.08672983387549</v>
+        <v>19.08672983387071</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>-9.586476337996778</v>
+        <v>-9.586476337968243</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>25.46795105984273</v>
+        <v>25.46795105984966</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>33.55292176492622</v>
+        <v>33.55292176493406</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>2.76174169069332</v>
+        <v>2.761741690667854</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>17.46669775437663</v>
+        <v>17.46669775439982</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>23.16244283946792</v>
+        <v>23.16244283941949</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>16.76310169623883</v>
+        <v>16.76310169623235</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>23.94779569322048</v>
+        <v>23.94779569328619</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>28.25975951415131</v>
+        <v>28.25975951418473</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>31.38168905745993</v>
+        <v>31.3816890574497</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>39.73702843897723</v>
+        <v>39.73702843898098</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>43.7981559352259</v>
+        <v>43.79815593519793</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>12.12745052036831</v>
+        <v>12.1274505204056</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>32.13871065973108</v>
+        <v>32.13871065968345</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>39.72107153628217</v>
+        <v>39.72107153626558</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>-6.550958705601666</v>
+        <v>-6.550958705520266</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>28.5068920483855</v>
+        <v>28.50689204834219</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>36.59450041930284</v>
+        <v>36.59450041927465</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>5.793931243044248</v>
+        <v>5.793931243098136</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>20.50175782770707</v>
+        <v>20.50175782776721</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>26.19966377426777</v>
+        <v>26.19966377434758</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>19.79894103032569</v>
+        <v>19.7989410304022</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>26.9859492958705</v>
+        <v>26.98594929586528</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>-5.539525694376785</v>
+        <v>-5.539525694373147</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>29.51502189639501</v>
+        <v>29.51502189631042</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>37.6000101330066</v>
+        <v>37.60001013305367</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>6.809253206622707</v>
+        <v>6.809253206595081</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>21.51436956071739</v>
+        <v>21.51436956070636</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>27.21013328382519</v>
+        <v>27.21013328382474</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>20.81069598759205</v>
+        <v>20.81069598763934</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>27.99554450224667</v>
+        <v>27.99554450231476</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>32.30752596269615</v>
+        <v>32.30752596274345</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>35.42945692828669</v>
+        <v>35.42945692826509</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>43.7848024930933</v>
+        <v>43.78480249305408</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>47.84594752338517</v>
+        <v>47.84594752333583</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>16.17505413952386</v>
+        <v>16.17505413951158</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>36.18650290700446</v>
+        <v>36.18650290697899</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>43.76887297319166</v>
+        <v>43.76887297313277</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>-2.503472640380046</v>
+        <v>-2.503472640365153</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>32.55449831426306</v>
+        <v>32.55449831429831</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>40.6421242205809</v>
+        <v>40.64212422056101</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>9.841978235691094</v>
+        <v>9.841978235637889</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>24.54996512038365</v>
+        <v>24.54996512036671</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>30.24788970672176</v>
+        <v>30.2478897067005</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>23.84707081317065</v>
+        <v>23.84707081322397</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>31.03423360576351</v>
+        <v>31.03423360573725</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>-12.97903902464265</v>
+        <v>-12.97903902464231</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>22.07498475548282</v>
+        <v>22.07498475550101</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>30.16014444713431</v>
+        <v>30.16014444715034</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>-0.6312144053009163</v>
+        <v>-0.6312144053770865</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>14.07350999976955</v>
+        <v>14.07350999974852</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>19.7694513092943</v>
+        <v>19.76945130930886</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>13.36975622164623</v>
+        <v>13.3697562216451</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>20.55429230387886</v>
+        <v>20.55429230385817</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>24.86643303999806</v>
+        <v>24.86643303998112</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>27.98782998315385</v>
+        <v>27.98782998316101</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>36.34311279604554</v>
+        <v>36.3431127960062</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>40.40434443976488</v>
+        <v>40.40434443978989</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>8.733895661773026</v>
+        <v>8.733895661704018</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>28.74487567472766</v>
+        <v>28.74487567472345</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>36.32745963862651</v>
+        <v>36.32745963861878</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>-9.94408280299951</v>
+        <v>-9.944082802902535</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>25.11336429487113</v>
+        <v>25.11336429486794</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>33.20116163844141</v>
+        <v>33.20116163846529</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>2.400413671053848</v>
+        <v>2.400413671104893</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>17.10800857145755</v>
+        <v>17.10800857148416</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>22.80611073020787</v>
+        <v>22.8061107302588</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>16.40503400966991</v>
+        <v>16.40503400965411</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>23.59188434199364</v>
+        <v>23.59188434197124</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>23.40058693785755</v>
+        <v>23.4005869379826</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>26.52361273393984</v>
+        <v>26.52361273394029</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>34.88094782547574</v>
+        <v>34.88094782550211</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>38.94336925111514</v>
+        <v>38.94336925115959</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>7.269264306962036</v>
+        <v>7.269264306953509</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>27.28432058624986</v>
+        <v>27.28432058629419</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>34.86865169256424</v>
+        <v>34.86865169257788</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>-4.870822130774009</v>
+        <v>-4.870822130734446</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>30.18764039875992</v>
+        <v>30.18764039877049</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>38.27603928399542</v>
+        <v>38.27603928398155</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>7.476274158517235</v>
+        <v>7.47627415849734</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>22.18504684348164</v>
+        <v>22.1850468434838</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>27.88377168455286</v>
+        <v>27.88377168460482</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>21.4823167168493</v>
+        <v>21.48231671688853</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>28.6702679153422</v>
+        <v>28.67026791536357</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>32.98478470628384</v>
+        <v>32.98478470633238</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>36.11027586166329</v>
+        <v>36.1102758616991</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>44.46834627945446</v>
+        <v>44.46834627941285</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>48.53106704733312</v>
+        <v>48.53106704737575</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>16.85356586372205</v>
+        <v>16.85356586377684</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>36.87035573275994</v>
+        <v>36.87035573281042</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>44.45557621612209</v>
+        <v>44.45557621617211</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>31.29973350191124</v>
+        <v>31.29973350194853</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>34.42324790013691</v>
+        <v>34.42324790016408</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>42.78069197886401</v>
+        <v>42.78069197885718</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>46.84310549437969</v>
+        <v>46.84310549440607</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>15.16824650407892</v>
+        <v>15.16824650410927</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>35.18399552405599</v>
+        <v>35.18399552407941</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>42.7682268343579</v>
+        <v>42.76822683437961</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>3.027083305493584</v>
+        <v>3.027083305513479</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>38.08630360468424</v>
+        <v>38.08630360465377</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>46.17464478270011</v>
+        <v>46.17464478265884</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>15.37548959330325</v>
+        <v>15.37548959334486</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>30.08482600755092</v>
+        <v>30.08482600753148</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>35.78347448697394</v>
+        <v>35.78347448697439</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>29.38202585622394</v>
+        <v>29.38202585624929</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>36.57042374411861</v>
+        <v>36.57042374414282</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>40.88486762908126</v>
+        <v>40.88486762909877</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>44.01084740531046</v>
+        <v>44.01084740535014</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>52.36902681500299</v>
+        <v>52.36902681504005</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>56.43173966698776</v>
+        <v>56.43173966697787</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>24.75348441907061</v>
+        <v>24.75348441909926</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>44.77096703237299</v>
+        <v>44.77096703245495</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>52.35608771354867</v>
+        <v>52.35608771355196</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>35.34803545224377</v>
+        <v>35.34803545230834</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>38.47155121386361</v>
+        <v>38.47155121387032</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>46.82900146619561</v>
+        <v>46.82900146621767</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>50.89143251654394</v>
+        <v>50.89143251653473</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>19.21638557226566</v>
+        <v>19.2163855722884</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>39.23232322701147</v>
+        <v>39.23232322703591</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>46.81656373126514</v>
+        <v>46.81656373129322</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>7.074976470403662</v>
+        <v>7.074976470448227</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>42.13431697168465</v>
+        <v>42.13431697165736</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>50.22267567458407</v>
+        <v>50.22267567452553</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>19.42394371210747</v>
+        <v>19.42394371203311</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>34.13344042558077</v>
+        <v>34.13344042555803</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>39.83210753767371</v>
+        <v>39.83210753771282</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>33.43056277414478</v>
+        <v>33.43056277414922</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>40.61911518797211</v>
+        <v>40.61911518801622</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>44.93357670786821</v>
+        <v>44.93357670793767</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>48.05955784384553</v>
+        <v>48.05955784383382</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>56.41774342471484</v>
+        <v>56.41774342468016</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>60.48047380928056</v>
+        <v>60.4804738093008</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>28.80203060436445</v>
+        <v>28.80203060438003</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>48.81970184920947</v>
+        <v>48.81970184919003</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>56.40483171765941</v>
+        <v>56.40483171762644</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>27.90584545212533</v>
+        <v>27.90584545212192</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>31.02882719767347</v>
+        <v>31.0288271976762</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>39.38621470090418</v>
+        <v>39.38621470099172</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>43.44873237021198</v>
+        <v>43.44873237025677</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>11.77413006833063</v>
+        <v>11.77413006835189</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>31.78959891933874</v>
+        <v>31.78959891935283</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>39.37405330954453</v>
+        <v>39.37405330961354</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>-0.3662074069107533</v>
+        <v>-0.3662074068146879</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>34.69260923763277</v>
+        <v>34.69260923758844</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>42.78113939142434</v>
+        <v>42.78113939141104</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>11.98180534361466</v>
+        <v>11.9818053435959</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>26.69091007549121</v>
+        <v>26.69091007555124</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>32.38975477310867</v>
+        <v>32.38975477313436</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>25.98795216484171</v>
+        <v>25.98795216491481</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>33.17619212133086</v>
+        <v>33.17619212134633</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>37.49081291663895</v>
+        <v>37.49081291669841</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>40.61626003208647</v>
+        <v>40.61626003213797</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>48.97438286221523</v>
+        <v>48.97438286227264</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>53.03719987051834</v>
+        <v>53.03719987055086</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>21.35920129784329</v>
+        <v>21.35920129784864</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>41.3764037447583</v>
+        <v>41.37640374474432</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>48.96174750919584</v>
+        <v>48.96174750916901</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>-6.401860291470889</v>
+        <v>-6.401860291438147</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>28.65377289313488</v>
+        <v>28.65377289316012</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>36.73986668659705</v>
+        <v>36.73986668661842</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>5.946497031789981</v>
+        <v>5.946497031722679</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>20.65164231837189</v>
+        <v>20.65164231833892</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>26.34829517020881</v>
+        <v>26.34829517018425</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>19.94829673386624</v>
+        <v>19.94829673382258</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>27.13286625772769</v>
+        <v>27.13286625770109</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>31.44557635052848</v>
+        <v>31.44557635058259</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>34.56666103360526</v>
+        <v>34.56666103366234</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>42.92240690932777</v>
+        <v>42.92240690940815</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>46.98403572306716</v>
+        <v>46.98403572315868</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>15.31173791124063</v>
+        <v>15.31173791122108</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>35.32321690121335</v>
+        <v>35.32321690121608</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>42.90665360557653</v>
+        <v>42.90665360552526</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>-3.362567000728923</v>
+        <v>-3.362567000728468</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>31.6964897372947</v>
+        <v>31.69648973725833</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>39.7852213916156</v>
+        <v>39.78522139160344</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>8.982462307863265</v>
+        <v>8.982462307852465</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>23.69047831242317</v>
+        <v>23.69047831246751</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>29.38929220069161</v>
+        <v>29.38929220073344</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>22.98791200236365</v>
+        <v>22.98791200232011</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>30.17479596585309</v>
+        <v>30.17479596585923</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>1.494695780012812</v>
+        <v>1.494695780013153</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>36.55108670507098</v>
+        <v>36.55108670505927</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>44.63712277566065</v>
+        <v>44.63712277566577</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>13.84436297447763</v>
+        <v>13.84436297447399</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>28.55007196304194</v>
+        <v>28.55007196305012</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>34.24664843739372</v>
+        <v>34.2466484374201</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>27.84665628985947</v>
+        <v>27.84665628990745</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>35.03167247969275</v>
+        <v>35.03167247968548</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>39.34430965223299</v>
+        <v>39.34430965224004</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>42.4658829937353</v>
+        <v>42.46588299374223</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>50.82173786256777</v>
+        <v>50.82173786258834</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>54.88335875891283</v>
+        <v>54.88335875893556</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>23.21030688487547</v>
+        <v>23.21030688484853</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>43.22247858168276</v>
+        <v>43.22247858169208</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>50.80581546406977</v>
+        <v>50.80581546409535</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>4.535293101593588</v>
+        <v>4.535293101619395</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>39.59510764282702</v>
+        <v>39.59510764284033</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>47.68378161363346</v>
+        <v>47.68378161362562</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>16.88163240679244</v>
+        <v>16.88163240673753</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>31.59021216635931</v>
+        <v>31.59021216638603</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>37.28894970741424</v>
+        <v>37.28894970746301</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>30.88757581572866</v>
+        <v>30.88757581570797</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>38.0749064890179</v>
+        <v>38.07490648906894</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>5.542012205270844</v>
+        <v>5.542012205261976</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>40.59852333179554</v>
+        <v>40.59852333174472</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>48.68457693478495</v>
+        <v>48.68457693482951</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>17.8922403104413</v>
+        <v>17.89224031039878</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>32.5981096006065</v>
+        <v>32.59810960057012</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>38.29470471291159</v>
+        <v>38.29470471288294</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>31.89461641090082</v>
+        <v>31.89461641086432</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>39.07978712951574</v>
+        <v>39.07978712943309</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>43.3924419410809</v>
+        <v>43.39244194103031</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>46.51401669757177</v>
+        <v>46.51401669759826</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>54.86987774898517</v>
+        <v>54.86987774899813</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>58.93151618117491</v>
+        <v>58.93151618120333</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>27.25827632450051</v>
+        <v>27.25827632456951</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>47.27063666159011</v>
+        <v>47.27063666151872</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>54.85398273408799</v>
+        <v>54.8539827340682</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>8.58314498041937</v>
+        <v>8.583144980440174</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>43.64307973072305</v>
+        <v>43.64307973068929</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>51.73177123768715</v>
+        <v>51.73177123768237</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>20.9300452513425</v>
+        <v>20.93004525133488</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>35.63878532206348</v>
+        <v>35.63878532208883</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>41.33754150305224</v>
+        <v>41.33754150308066</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>34.93607146028949</v>
+        <v>34.93607146034963</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>42.12355667166349</v>
+        <v>42.12355667166917</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>-1.89817288378601</v>
+        <v>-1.898172883783737</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>33.15781440516337</v>
+        <v>33.15781440514382</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>41.24403946053615</v>
+        <v>41.24403946053808</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>10.45110084036974</v>
+        <v>10.45110084037304</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>25.15657816193407</v>
+        <v>25.15657816197079</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>30.85335086103094</v>
+        <v>30.85335086105936</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>24.45300476487176</v>
+        <v>24.45300476490768</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>31.63786303558771</v>
+        <v>31.63786303567502</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>35.95067712360201</v>
+        <v>35.95067712368023</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>39.07171783299753</v>
+        <v>39.07171783300424</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>47.42751612726152</v>
+        <v>47.42751612731677</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>51.48924117725522</v>
+        <v>51.48924117726988</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>19.81644595970175</v>
+        <v>19.8164459597396</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>39.82833751712536</v>
+        <v>39.82833751708761</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>47.41189749219728</v>
+        <v>47.41189749227686</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>1.141862995891806</v>
+        <v>1.141862995863725</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>36.20127386250652</v>
+        <v>36.20127386251777</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>44.29013680425106</v>
+        <v>44.29013680425742</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>13.48780876596896</v>
+        <v>13.48780876597657</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>28.19615683288674</v>
+        <v>28.19615683290026</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>33.89509058639867</v>
+        <v>33.89509058643142</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>27.49336271365365</v>
+        <v>27.49336271369696</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>34.68053544941704</v>
+        <v>34.68053544941136</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>34.48932659556731</v>
+        <v>34.48932659556697</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>37.61199607234499</v>
+        <v>37.61199607231031</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>45.96984679530049</v>
+        <v>45.96984679526661</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>50.03276174490605</v>
+        <v>50.03276174482271</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>18.356309920466</v>
+        <v>18.35630992046304</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>38.37227806450772</v>
+        <v>38.37227806454694</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>45.95758536317333</v>
+        <v>45.95758536315355</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>6.213336509434093</v>
+        <v>6.213336509430682</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>41.27376286332497</v>
+        <v>41.27376286328438</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>49.36322738705103</v>
+        <v>49.36322738705785</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>18.56188214723414</v>
+        <v>18.56188214715899</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>33.27140805206039</v>
+        <v>33.27140805206414</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>38.97096453323473</v>
+        <v>38.97096453321245</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>32.56885831789435</v>
+        <v>32.56885831780919</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>39.75713196666862</v>
+        <v>39.75713196667635</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>44.0723223263381</v>
+        <v>44.07232232630547</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>47.19745734344206</v>
+        <v>47.19745734344513</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>55.5560434439389</v>
+        <v>55.55604344393151</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>59.61925775832201</v>
+        <v>59.61925775830519</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>27.93940952260919</v>
+        <v>27.93940952263647</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>47.95711134447759</v>
+        <v>47.95711134444962</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>55.54330811243658</v>
+        <v>55.54330811242146</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>42.38936422362774</v>
+        <v>42.38936422362524</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>45.51252231105928</v>
+        <v>45.51252231096139</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>53.87048202818794</v>
+        <v>53.87048202815861</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>57.93338906999514</v>
+        <v>57.93338907003015</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>26.25618314397826</v>
+        <v>26.25618314395859</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>46.2728440682884</v>
+        <v>46.27284406829784</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>53.85805157294777</v>
+        <v>53.85805157293151</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>14.11213289144001</v>
+        <v>14.11213289144489</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>49.17331705893917</v>
+        <v>49.1733170589278</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>57.26272388468993</v>
+        <v>57.26272388471039</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>26.46198865111335</v>
+        <v>26.46198865107674</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>41.17207831802096</v>
+        <v>41.17207831803483</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>46.87155844190573</v>
+        <v>46.87155844189027</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>40.46945855678467</v>
+        <v>40.46945855680251</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>47.65817892103626</v>
+        <v>47.65817892103558</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>51.97329637748378</v>
+        <v>51.97329637751573</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>55.09892002412465</v>
+        <v>55.09892002405041</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>63.4576151231468</v>
+        <v>63.45761512318364</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>67.52082152384861</v>
+        <v>67.52082152376187</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>35.84021916841964</v>
+        <v>35.84021916833029</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>55.85861377412498</v>
+        <v>55.85861377411032</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>63.44471074195558</v>
+        <v>63.44471074191852</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>46.43803204653971</v>
+        <v>46.43803204652732</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>49.56119148964722</v>
+        <v>49.56119148959663</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>57.91915737960192</v>
+        <v>57.91915737951893</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>61.9820819582315</v>
+        <v>61.98208195821569</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>30.30468806477807</v>
+        <v>30.30468806472248</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>50.32153763578088</v>
+        <v>50.32153763574916</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>57.90675433477389</v>
+        <v>57.90675433470761</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>18.16039189130509</v>
+        <v>18.16039189128895</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>53.22169626942462</v>
+        <v>53.22169626937187</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>61.3111206212614</v>
+        <v>61.31112062122491</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>30.51080864297358</v>
+        <v>30.51080864295164</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>45.22105862045924</v>
+        <v>45.22105862050244</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>50.92055737719334</v>
+        <v>50.92055737720869</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>44.51836135760077</v>
+        <v>44.51836135760259</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>51.70723625900467</v>
+        <v>51.7072362589626</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>56.02237135030901</v>
+        <v>56.02237135027467</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>59.14799634880369</v>
+        <v>59.14799634874492</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>67.50669761832745</v>
+        <v>67.50669761826174</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>71.56992155361337</v>
+        <v>71.56992155353527</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>39.8891312279781</v>
+        <v>39.88913122793343</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>59.9077144773675</v>
+        <v>59.90771447724938</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>67.49382063279216</v>
+        <v>67.49382063274578</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>38.99517008859419</v>
+        <v>38.99517008853427</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>42.11779549145484</v>
+        <v>42.11779549145336</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>50.4756986271073</v>
+        <v>50.47569862704614</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>54.53870982863059</v>
+        <v>54.53870982862934</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>22.86176061133374</v>
+        <v>22.86176061134636</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>42.87814135318165</v>
+        <v>42.87814135318359</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>50.46357194325895</v>
+        <v>50.463571943222</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>10.71853614124512</v>
+        <v>10.71853614126763</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>45.77931663575844</v>
+        <v>45.77931663579118</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>53.86891243565361</v>
+        <v>53.86891243568623</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>23.06799830310563</v>
+        <v>23.06799830309279</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>37.77785627923407</v>
+        <v>37.77785627925123</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>43.47753262144527</v>
+        <v>43.4775326214696</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>37.07507875441586</v>
+        <v>37.07507875437255</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>44.26364118303109</v>
+        <v>44.26364118304746</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>48.57893555030369</v>
+        <v>48.57893555028925</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>51.70402650404338</v>
+        <v>51.70402650399006</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>60.06266501747455</v>
+        <v>60.06266501749092</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>64.1259755806812</v>
+        <v>64.12597558069177</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>32.44562992056972</v>
+        <v>32.44562992051527</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>52.46374434660122</v>
+        <v>52.46374434656473</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>60.05006440317634</v>
+        <v>60.05006440316304</v>
       </c>
     </row>
   </sheetData>
